--- a/tests/VN8413_Data_Topline.xlsx
+++ b/tests/VN8413_Data_Topline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/Dev Area/PyPackages/packaging_dpkits/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C67768D9323EADF6D04AA6FE7BE80CA071ACA6B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4514EBA-E6C7-46B5-BEE2-5D54392D528B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_C777F029F432ADF6D06A24FB67680754416FA50B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894E8848-EABF-4023-B378-21A54518E10F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
   <si>
     <t>#</t>
   </si>
@@ -279,6 +279,24 @@
     <t>Std</t>
   </si>
   <si>
+    <t>calculate|NPS</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>calculate|4 - Thích weight 0.2</t>
+  </si>
+  <si>
+    <t>4 - Thích weight 0.2</t>
+  </si>
+  <si>
+    <t>calculate|5 - Rất thích weight 0.8</t>
+  </si>
+  <si>
+    <t>5 - Rất thích weight 0.8</t>
+  </si>
+  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -306,12 +324,6 @@
     <t>Rất Phù hợp</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>NPS</t>
-  </si>
-  <si>
     <t>Q5</t>
   </si>
   <si>
@@ -403,13 +415,25 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>calculate|Yes*0.2</t>
+  </si>
+  <si>
+    <t>Yes*0.2</t>
+  </si>
+  <si>
+    <t>calculate|Yes*0.8</t>
+  </si>
+  <si>
+    <t>Yes*0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +493,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE26B0A"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -710,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -733,19 +763,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,19 +781,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,13 +1140,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80:W81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,169 +1292,169 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="38" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="38" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="31"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="29" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="29" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="36" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="39" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="39" t="s">
+      <c r="U6" s="26"/>
+      <c r="V6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="31"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="35" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="35" t="s">
+      <c r="O7" s="26"/>
+      <c r="P7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="34" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="35" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="35" t="s">
+      <c r="U7" s="26"/>
+      <c r="V7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="31"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="s">
@@ -1476,8 +1504,8 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>52</v>
       </c>
@@ -1525,8 +1553,8 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" t="s">
         <v>52</v>
       </c>
@@ -1574,8 +1602,8 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" t="s">
         <v>52</v>
       </c>
@@ -1627,8 +1655,8 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" t="s">
         <v>52</v>
       </c>
@@ -1682,8 +1710,8 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1737,8 +1765,8 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" t="s">
         <v>52</v>
       </c>
@@ -1794,8 +1822,8 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -1847,8 +1875,8 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" t="s">
         <v>52</v>
       </c>
@@ -1896,8 +1924,8 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -1908,3320 +1936,3543 @@
         <v>78</v>
       </c>
       <c r="F17" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="G17" s="16"/>
+        <v>4.3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H17" s="17">
-        <v>1.8533333333333331</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>4.1466666666666674</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="J17" s="17">
-        <v>1.96</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>4.04</v>
+      </c>
+      <c r="K17" s="16"/>
       <c r="L17" s="15">
-        <v>1.6533333333333331</v>
-      </c>
-      <c r="M17" s="16"/>
+        <v>4.3466666666666667</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="N17" s="17">
-        <v>1.8533333333333331</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>4.1466666666666674</v>
+      </c>
+      <c r="O17" s="16"/>
       <c r="P17" s="17">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="15">
-        <v>1.746666666666667</v>
-      </c>
-      <c r="S17" s="16"/>
+        <v>4.253333333333333</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="T17" s="17">
-        <v>1.8533333333333331</v>
-      </c>
-      <c r="U17" s="16"/>
+        <v>4.1466666666666674</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="V17" s="17">
-        <v>2.12</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>61</v>
-      </c>
+        <v>3.88</v>
+      </c>
+      <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>0.65282041684087622</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21">
+      <c r="G18" s="16"/>
+      <c r="H18" s="17">
         <v>0.53578853219383582</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21">
+      <c r="I18" s="16"/>
+      <c r="J18" s="17">
         <v>0.70358621152420253</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="19">
+      <c r="K18" s="16"/>
+      <c r="L18" s="15">
         <v>0.62586876556648174</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17">
         <v>0.51184175482465466</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21">
+      <c r="O18" s="16"/>
+      <c r="P18" s="17">
         <v>0.65759594922142917</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19">
+      <c r="Q18" s="16"/>
+      <c r="R18" s="15">
         <v>0.67969256431270608</v>
       </c>
-      <c r="S18" s="20"/>
-      <c r="T18" s="21">
+      <c r="S18" s="16"/>
+      <c r="T18" s="17">
         <v>0.56217082460408418</v>
       </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="21">
+      <c r="U18" s="16"/>
+      <c r="V18" s="17">
         <v>0.71584386037210146</v>
       </c>
-      <c r="W18" s="20"/>
+      <c r="W18" s="16"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="E19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" s="15">
+        <v>0.90666666666666673</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17">
+        <v>0.92666666666666664</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="15">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="U19" s="16"/>
+      <c r="V19" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.10533333333333331</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
+        <v>0.14266666666666669</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17">
+        <v>0.1173333333333333</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17">
+        <v>0.11466666666666669</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="15">
+        <v>0.104</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17">
+        <v>0.14133333333333331</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.31466666666666671</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22">
+        <v>0.192</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20">
+        <v>0.33066666666666672</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22">
+        <v>0.17066666666666669</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="20">
+        <v>0.29866666666666669</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="22">
+        <v>0.18133333333333329</v>
+      </c>
+      <c r="U21" s="21"/>
+      <c r="V21" s="22">
+        <v>0.128</v>
+      </c>
+      <c r="W21" s="21"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F22" s="5">
         <v>150</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4">
+      <c r="G22" s="6"/>
+      <c r="H22" s="4">
         <v>150</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="4">
+      <c r="I22" s="6"/>
+      <c r="J22" s="4">
         <v>150</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5">
+      <c r="K22" s="6"/>
+      <c r="L22" s="5">
         <v>75</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="4">
+      <c r="M22" s="6"/>
+      <c r="N22" s="4">
         <v>75</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="4">
+      <c r="O22" s="6"/>
+      <c r="P22" s="4">
         <v>75</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="5">
         <v>75</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="4">
+      <c r="S22" s="6"/>
+      <c r="T22" s="4">
         <v>75</v>
       </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="4">
+      <c r="U22" s="6"/>
+      <c r="V22" s="4">
         <v>75</v>
       </c>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="8">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="8">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="8">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="8">
-        <v>0.55333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="10">
-        <v>0.62666666666666671</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="8">
-        <v>0.54666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.70666666666666667</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="10">
-        <v>0.58666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="8">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="10">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U23" s="9"/>
       <c r="V23" s="10">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" t="s">
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="8">
-        <v>0.36666666666666659</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="H24" s="10">
-        <v>0.22666666666666671</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="10">
-        <v>0.21333333333333329</v>
-      </c>
-      <c r="K24" s="9"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L24" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="10">
-        <v>0.30666666666666659</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S24" s="9"/>
       <c r="T24" s="10">
-        <v>0.21333333333333329</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="10">
         <v>0.12</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="8">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="10">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.55333333333333334</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="8">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10">
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10">
+        <v>0.21333333333333329</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10">
+        <v>0.30666666666666659</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0.21333333333333329</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="W27" s="9"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F28" s="12">
         <v>0.92</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H28" s="13">
         <v>0.94666666666666666</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J28" s="13">
         <v>0.84</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="12">
+      <c r="K28" s="9"/>
+      <c r="L28" s="12">
         <v>0.94666666666666666</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="13">
+      <c r="M28" s="9"/>
+      <c r="N28" s="13">
         <v>0.94666666666666666</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="13">
+      <c r="O28" s="9"/>
+      <c r="P28" s="13">
         <v>0.89333333333333331</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="12">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="12">
         <v>0.89333333333333331</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="13">
+      <c r="S28" s="9"/>
+      <c r="T28" s="13">
         <v>0.94666666666666666</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V28" s="13">
         <v>0.78666666666666663</v>
       </c>
-      <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="W28" s="9"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F29" s="12">
         <v>4.6666666666666669E-2</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="13">
+      <c r="G29" s="9"/>
+      <c r="H29" s="13">
         <v>0.04</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="13">
+      <c r="I29" s="9"/>
+      <c r="J29" s="13">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="12">
+      <c r="K29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="12">
         <v>0.04</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="13">
+      <c r="M29" s="9"/>
+      <c r="N29" s="13">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="13">
+      <c r="O29" s="9"/>
+      <c r="P29" s="13">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="12">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="12">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="13">
+      <c r="S29" s="9"/>
+      <c r="T29" s="13">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="13">
+      <c r="U29" s="9"/>
+      <c r="V29" s="13">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="W26" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="W29" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F30" s="12">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="13">
+      <c r="G30" s="9"/>
+      <c r="H30" s="13">
         <v>1.3333333333333331E-2</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="13">
+      <c r="I30" s="9"/>
+      <c r="J30" s="13">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L30" s="12">
         <v>1.3333333333333331E-2</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="13">
+      <c r="M30" s="9"/>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="13">
         <v>1.3333333333333331E-2</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="12">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="12">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="13">
+      <c r="S30" s="9"/>
+      <c r="T30" s="13">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="13">
+      <c r="U30" s="9"/>
+      <c r="V30" s="13">
         <v>0.12</v>
       </c>
-      <c r="W27" s="9" t="s">
+      <c r="W30" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F31" s="15">
         <v>4.253333333333333</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H31" s="17">
         <v>4.16</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J31" s="17">
         <v>3.9866666666666668</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="15">
+      <c r="K31" s="16"/>
+      <c r="L31" s="15">
         <v>4.333333333333333</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17">
+      <c r="M31" s="16"/>
+      <c r="N31" s="17">
         <v>4.1866666666666674</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17">
+      <c r="O31" s="16"/>
+      <c r="P31" s="17">
         <v>4.1866666666666674</v>
       </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="15">
+      <c r="Q31" s="16"/>
+      <c r="R31" s="15">
         <v>4.1733333333333329</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T31" s="17">
         <v>4.1333333333333337</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="U31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V31" s="17">
         <v>3.7866666666666671</v>
       </c>
-      <c r="W28" s="16"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="W31" s="16"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E32" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F32" s="20">
         <v>0.69694122374216783</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17">
+      <c r="G32" s="21"/>
+      <c r="H32" s="22">
         <v>0.54440411361981322</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17">
+      <c r="I32" s="21"/>
+      <c r="J32" s="22">
         <v>0.75960663315723176</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="15">
+      <c r="K32" s="21"/>
+      <c r="L32" s="20">
         <v>0.62240452069967123</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17">
+      <c r="M32" s="21"/>
+      <c r="N32" s="22">
         <v>0.51184175482465477</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="17">
+      <c r="O32" s="21"/>
+      <c r="P32" s="22">
         <v>0.65126349824333329</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="15">
+      <c r="Q32" s="21"/>
+      <c r="R32" s="20">
         <v>0.76003793172292233</v>
       </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="17">
+      <c r="S32" s="21"/>
+      <c r="T32" s="22">
         <v>0.57735026918962584</v>
       </c>
-      <c r="U29" s="16"/>
-      <c r="V29" s="17">
+      <c r="U32" s="21"/>
+      <c r="V32" s="22">
         <v>0.81029412966932968</v>
       </c>
-      <c r="W29" s="16"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.88666666666666671</v>
-      </c>
-      <c r="G30" s="20">
-        <f>F25-F27</f>
-        <v>0.88666666666666671</v>
-      </c>
-      <c r="H30" s="21">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="I30" s="20">
-        <f>H25-H27</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="J30" s="21">
-        <v>0.77333333333333332</v>
-      </c>
-      <c r="K30" s="20">
-        <f>J25-J27</f>
-        <v>0.77333333333333332</v>
-      </c>
-      <c r="L30" s="19">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="M30" s="20">
-        <f>L25-L27</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="N30" s="21">
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="O30" s="20">
-        <f>N25-N27</f>
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="P30" s="21">
-        <v>0.88</v>
-      </c>
-      <c r="Q30" s="20">
-        <f>P25-P27</f>
-        <v>0.88</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0.84</v>
-      </c>
-      <c r="S30" s="20">
-        <f>R25-R27</f>
-        <v>0.84</v>
-      </c>
-      <c r="T30" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="U30" s="20">
-        <f>T25-T27</f>
-        <v>0.92</v>
-      </c>
-      <c r="V30" s="21">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W30" s="20">
-        <f>V25-V27</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="W32" s="21"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F33" s="5">
         <v>150</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="4">
+      <c r="G33" s="6"/>
+      <c r="H33" s="4">
         <v>150</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="4">
+      <c r="I33" s="6"/>
+      <c r="J33" s="4">
         <v>150</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="5">
+      <c r="K33" s="6"/>
+      <c r="L33" s="5">
         <v>75</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="4">
+      <c r="M33" s="6"/>
+      <c r="N33" s="4">
         <v>75</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="4">
+      <c r="O33" s="6"/>
+      <c r="P33" s="4">
         <v>75</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="5">
+      <c r="Q33" s="6"/>
+      <c r="R33" s="5">
         <v>75</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="4">
+      <c r="S33" s="6"/>
+      <c r="T33" s="4">
         <v>75</v>
       </c>
-      <c r="U31" s="6"/>
-      <c r="V31" s="4">
+      <c r="U33" s="6"/>
+      <c r="V33" s="4">
         <v>75</v>
       </c>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10">
-        <v>0</v>
-      </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="10">
-        <v>0</v>
-      </c>
-      <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="8">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="8">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="8">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F34" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="10">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="10">
-        <v>7.3333333333333334E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="10">
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="10">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="W34" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" t="s">
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35" s="8">
-        <v>0.53333333333333333</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="10">
-        <v>0.60666666666666669</v>
-      </c>
-      <c r="K35" s="9"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L35" s="8">
-        <v>0.49333333333333329</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.69333333333333336</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O35" s="9"/>
       <c r="P35" s="10">
-        <v>0.56000000000000005</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="8">
-        <v>0.57333333333333336</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="10">
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U35" s="9"/>
       <c r="V35" s="10">
-        <v>0.65333333333333332</v>
-      </c>
-      <c r="W35" s="9"/>
+        <v>0.12</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" t="s">
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="10">
-        <v>0.22</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="10">
-        <v>0.22666666666666671</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.24</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="10">
-        <v>0.33333333333333331</v>
+        <v>0.04</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S36" s="9"/>
       <c r="T36" s="10">
-        <v>0.2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="10">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="8">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="8">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10">
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="O38" s="9"/>
+      <c r="P38" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="10">
         <v>0.12</v>
       </c>
-      <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F39" s="12">
         <v>0.91333333333333333</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H39" s="13">
         <v>0.94</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J39" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="12">
+      <c r="K39" s="9"/>
+      <c r="L39" s="12">
         <v>0.93333333333333335</v>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="13">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="13">
-        <v>0.89333333333333331</v>
-      </c>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="12">
-        <v>0.89333333333333331</v>
-      </c>
-      <c r="S37" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="T37" s="13">
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="U37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V37" s="13">
-        <v>0.77333333333333332</v>
-      </c>
-      <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="13">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="13">
-        <v>7.3333333333333334E-2</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="13">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="13">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="13">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="W38" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="12">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="13">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="13">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L39" s="12">
-        <v>1.3333333333333331E-2</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="13">
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="13">
-        <v>6.6666666666666666E-2</v>
+        <v>0.89333333333333331</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="12">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T39" s="13">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V39" s="13">
+        <v>0.77333333333333332</v>
+      </c>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="12">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="13">
+      <c r="G40" s="9"/>
+      <c r="H40" s="13">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="13">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O40" s="9"/>
+      <c r="P40" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="13">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="13">
+      <c r="U40" s="9"/>
+      <c r="V40" s="13">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="W40" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="12">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="13">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="13">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="12">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="13">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U41" s="9"/>
+      <c r="V41" s="13">
         <v>0.12</v>
       </c>
-      <c r="W39" s="9" t="s">
+      <c r="W41" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F42" s="15">
         <v>4.26</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H42" s="17">
         <v>4.1466666666666674</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J42" s="17">
         <v>3.9666666666666668</v>
       </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="15">
+      <c r="K42" s="16"/>
+      <c r="L42" s="15">
         <v>4.3600000000000003</v>
       </c>
-      <c r="M40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N40" s="17">
+      <c r="M42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N42" s="17">
         <v>4.1733333333333329</v>
       </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="17">
+      <c r="O42" s="16"/>
+      <c r="P42" s="17">
         <v>4.16</v>
       </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="15">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="15">
         <v>4.16</v>
       </c>
-      <c r="S40" s="16" t="s">
+      <c r="S42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T42" s="17">
         <v>4.12</v>
       </c>
-      <c r="U40" s="16" t="s">
+      <c r="U42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V40" s="17">
+      <c r="V42" s="17">
         <v>3.773333333333333</v>
       </c>
-      <c r="W40" s="16"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="W42" s="16"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E43" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F43" s="20">
         <v>0.70881316817801165</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21">
+      <c r="G43" s="21"/>
+      <c r="H43" s="22">
         <v>0.54817166109018378</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21">
+      <c r="I43" s="21"/>
+      <c r="J43" s="22">
         <v>0.82263830494368939</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="19">
+      <c r="K43" s="21"/>
+      <c r="L43" s="20">
         <v>0.6501559064583684</v>
       </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21">
+      <c r="M43" s="21"/>
+      <c r="N43" s="22">
         <v>0.52949066125887467</v>
       </c>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21">
+      <c r="O43" s="21"/>
+      <c r="P43" s="22">
         <v>0.78911513906571484</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="19">
+      <c r="Q43" s="21"/>
+      <c r="R43" s="20">
         <v>0.75408795816446261</v>
       </c>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21">
+      <c r="S43" s="21"/>
+      <c r="T43" s="22">
         <v>0.56854484716972264</v>
       </c>
-      <c r="U41" s="20"/>
-      <c r="V41" s="21">
+      <c r="U43" s="21"/>
+      <c r="V43" s="22">
         <v>0.81495039367077071</v>
       </c>
-      <c r="W41" s="20"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="W43" s="21"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F44" s="5">
         <v>150</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="4">
+      <c r="G44" s="6"/>
+      <c r="H44" s="4">
         <v>150</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="4">
+      <c r="I44" s="6"/>
+      <c r="J44" s="4">
         <v>150</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="5">
+      <c r="K44" s="6"/>
+      <c r="L44" s="5">
         <v>75</v>
       </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="4">
+      <c r="M44" s="6"/>
+      <c r="N44" s="4">
         <v>75</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="4">
+      <c r="O44" s="6"/>
+      <c r="P44" s="4">
         <v>75</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="5">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="5">
         <v>75</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="4">
+      <c r="S44" s="6"/>
+      <c r="T44" s="4">
         <v>75</v>
       </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="4">
+      <c r="U44" s="6"/>
+      <c r="V44" s="4">
         <v>75</v>
       </c>
-      <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="10">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9"/>
-      <c r="T43" s="10">
-        <v>0</v>
-      </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="10">
-        <v>0</v>
-      </c>
-      <c r="W43" s="9"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="8">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="10">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="8">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F45" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="10">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.1066666666666667</v>
+        <v>0</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="9"/>
       <c r="R45" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="10">
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="W45" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="8">
-        <v>0.56666666666666665</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="10">
-        <v>0.70666666666666667</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="I46" s="9"/>
       <c r="J46" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="K46" s="9"/>
+        <v>0.08</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L46" s="8">
-        <v>0.57333333333333336</v>
+        <v>0</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.69333333333333336</v>
+        <v>0</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="10">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="8">
-        <v>0.56000000000000005</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="S46" s="9"/>
       <c r="T46" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="U46" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U46" s="9"/>
       <c r="V46" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="W46" s="9"/>
+        <v>0.12</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" s="8">
-        <v>0.35333333333333328</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="G47" s="9"/>
       <c r="H47" s="10">
-        <v>0.21333333333333329</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="8">
-        <v>0.37333333333333341</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.2</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="10">
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S47" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S47" s="9"/>
       <c r="T47" s="10">
-        <v>0.22666666666666671</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="10">
         <v>0.12</v>
       </c>
-      <c r="W47" s="9"/>
+      <c r="W47" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10">
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="8">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="O48" s="9"/>
+      <c r="P48" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="W48" s="9"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.35333333333333328</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.21333333333333329</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="8">
+        <v>0.37333333333333341</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="P49" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="U49" s="9"/>
+      <c r="V49" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="W49" s="9"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F50" s="12">
         <v>0.92</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H50" s="13">
         <v>0.92</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J50" s="13">
         <v>0.82</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="12">
+      <c r="K50" s="9"/>
+      <c r="L50" s="12">
         <v>0.94666666666666666</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N48" s="13">
+      <c r="M50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" s="13">
         <v>0.89333333333333331</v>
-      </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="12">
-        <v>0.89333333333333331</v>
-      </c>
-      <c r="S48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T48" s="13">
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V48" s="13">
-        <v>0.76</v>
-      </c>
-      <c r="W48" s="9"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="13">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="13">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="13">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="W49" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="12">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="13">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" s="12">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="13">
-        <v>0</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="13">
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="12">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="U50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V50" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="W50" s="9"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="12">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="13">
+      <c r="G51" s="9"/>
+      <c r="H51" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="13">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="O51" s="9"/>
+      <c r="P51" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="13">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="U50" s="9"/>
-      <c r="V50" s="13">
+      <c r="U51" s="9"/>
+      <c r="V51" s="13">
         <v>0.12</v>
       </c>
-      <c r="W50" s="9" t="s">
+      <c r="W51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" t="s">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="12">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="13">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="13">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9"/>
+      <c r="P52" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S52" s="9"/>
+      <c r="T52" s="13">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U52" s="9"/>
+      <c r="V52" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="W52" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F53" s="15">
         <v>4.246666666666667</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H53" s="17">
         <v>4.12</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J53" s="17">
         <v>3.94</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="15">
+      <c r="K53" s="16"/>
+      <c r="L53" s="15">
         <v>4.32</v>
       </c>
-      <c r="M51" s="16" t="s">
+      <c r="M53" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N53" s="17">
         <v>4.0933333333333337</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="17">
+      <c r="O53" s="16"/>
+      <c r="P53" s="17">
         <v>4.12</v>
       </c>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="15">
+      <c r="Q53" s="16"/>
+      <c r="R53" s="15">
         <v>4.1733333333333329</v>
       </c>
-      <c r="S51" s="16" t="s">
+      <c r="S53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="17">
+      <c r="T53" s="17">
         <v>4.1466666666666674</v>
       </c>
-      <c r="U51" s="16" t="s">
+      <c r="U53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V51" s="17">
+      <c r="V53" s="17">
         <v>3.76</v>
       </c>
-      <c r="W51" s="16"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="W53" s="16"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E54" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F54" s="20">
         <v>0.67492646048984561</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21">
+      <c r="G54" s="21"/>
+      <c r="H54" s="22">
         <v>0.56663376664593124</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21">
+      <c r="I54" s="21"/>
+      <c r="J54" s="22">
         <v>0.78774165355887948</v>
       </c>
-      <c r="K52" s="20"/>
-      <c r="L52" s="19">
+      <c r="K54" s="21"/>
+      <c r="L54" s="20">
         <v>0.5732788576675828</v>
       </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21">
+      <c r="M54" s="21"/>
+      <c r="N54" s="22">
         <v>0.54952887274644824</v>
       </c>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21">
+      <c r="O54" s="21"/>
+      <c r="P54" s="22">
         <v>0.71584386037210135</v>
       </c>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="19">
+      <c r="Q54" s="21"/>
+      <c r="R54" s="20">
         <v>0.76003793172292233</v>
       </c>
-      <c r="S52" s="20"/>
-      <c r="T52" s="21">
+      <c r="S54" s="21"/>
+      <c r="T54" s="22">
         <v>0.58571585522594738</v>
       </c>
-      <c r="U52" s="20"/>
-      <c r="V52" s="21">
+      <c r="U54" s="21"/>
+      <c r="V54" s="22">
         <v>0.81936033059414792</v>
       </c>
-      <c r="W52" s="20"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="W54" s="21"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F55" s="5">
         <v>150</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="4">
+      <c r="G55" s="6"/>
+      <c r="H55" s="4">
         <v>150</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="4">
+      <c r="I55" s="6"/>
+      <c r="J55" s="4">
         <v>150</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="5">
+      <c r="K55" s="6"/>
+      <c r="L55" s="5">
         <v>75</v>
       </c>
-      <c r="M53" s="6"/>
-      <c r="N53" s="4">
+      <c r="M55" s="6"/>
+      <c r="N55" s="4">
         <v>75</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="4">
+      <c r="O55" s="6"/>
+      <c r="P55" s="4">
         <v>75</v>
       </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="5">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="5">
         <v>75</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="4">
+      <c r="S55" s="6"/>
+      <c r="T55" s="4">
         <v>75</v>
       </c>
-      <c r="U53" s="6"/>
-      <c r="V53" s="4">
+      <c r="U55" s="6"/>
+      <c r="V55" s="4">
         <v>75</v>
       </c>
-      <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="10">
-        <v>0</v>
-      </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="8">
-        <v>0</v>
-      </c>
-      <c r="S54" s="9"/>
-      <c r="T54" s="10">
-        <v>0</v>
-      </c>
-      <c r="U54" s="9"/>
-      <c r="V54" s="10">
-        <v>0</v>
-      </c>
-      <c r="W54" s="9"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" s="8">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="10">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="8">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="10">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U55" s="9"/>
-      <c r="V55" s="10">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="W55" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>59</v>
-      </c>
       <c r="E56" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F56" s="8">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56" s="9"/>
       <c r="L56" s="8">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="O56" s="9"/>
       <c r="P56" s="10">
-        <v>9.3333333333333338E-2</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S56" s="9"/>
       <c r="T56" s="10">
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="U56" s="9"/>
       <c r="V56" s="10">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="W56" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W56" s="9"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" t="s">
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F57" s="8">
-        <v>0.53333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="9"/>
       <c r="J57" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K57" s="9"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="L57" s="8">
-        <v>0.52</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="O57" s="9"/>
       <c r="P57" s="10">
-        <v>0.56000000000000005</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="8">
-        <v>0.54666666666666663</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="S57" s="9"/>
       <c r="T57" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="U57" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U57" s="9"/>
       <c r="V57" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="W57" s="9"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="W57" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" t="s">
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F58" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="G58" s="9"/>
       <c r="H58" s="10">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="10">
-        <v>0.20666666666666669</v>
-      </c>
-      <c r="K58" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="L58" s="8">
-        <v>0.41333333333333327</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.21333333333333329</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="10">
-        <v>0.29333333333333328</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="8">
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="S58" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="S58" s="9"/>
       <c r="T58" s="10">
-        <v>0.22666666666666671</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="10">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="W58" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="8">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="U59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="W59" s="9"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10">
+        <v>0.20666666666666669</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="8">
+        <v>0.41333333333333327</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N60" s="10">
+        <v>0.21333333333333329</v>
+      </c>
+      <c r="O60" s="9"/>
+      <c r="P60" s="10">
+        <v>0.29333333333333328</v>
+      </c>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="8">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" s="10">
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="U60" s="9"/>
+      <c r="V60" s="10">
         <v>0.12</v>
       </c>
-      <c r="W58" s="9"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="W60" s="9"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F61" s="12">
         <v>0.91333333333333333</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H61" s="13">
         <v>0.94</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J61" s="13">
         <v>0.80666666666666664</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="12">
+      <c r="K61" s="9"/>
+      <c r="L61" s="12">
         <v>0.93333333333333335</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N59" s="13">
+      <c r="M61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N61" s="13">
         <v>0.93333333333333335</v>
-      </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="13">
-        <v>0.85333333333333339</v>
-      </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="12">
-        <v>0.89333333333333331</v>
-      </c>
-      <c r="S59" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T59" s="13">
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="U59" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V59" s="13">
-        <v>0.76</v>
-      </c>
-      <c r="W59" s="9"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="12">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="13">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="13">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="S60" s="9"/>
-      <c r="T60" s="13">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="U60" s="9"/>
-      <c r="V60" s="13">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="W60" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="13">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" s="12">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="13">
-        <v>1.3333333333333331E-2</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="13">
-        <v>5.3333333333333337E-2</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="12">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T61" s="13">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="U61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="W61" s="9"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="12">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="13">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="O62" s="9"/>
+      <c r="P62" s="13">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="13">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="U62" s="9"/>
+      <c r="V62" s="13">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="W62" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="13">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="12">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="13">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="O63" s="9"/>
+      <c r="P63" s="13">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="12">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="13">
+      <c r="S63" s="9"/>
+      <c r="T63" s="13">
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="U61" s="9"/>
-      <c r="V61" s="13">
+      <c r="U63" s="9"/>
+      <c r="V63" s="13">
         <v>0.1333333333333333</v>
       </c>
-      <c r="W61" s="9" t="s">
+      <c r="W63" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F64" s="15">
         <v>4.253333333333333</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H64" s="17">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J64" s="17">
         <v>3.92</v>
       </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="15">
+      <c r="K64" s="16"/>
+      <c r="L64" s="15">
         <v>4.333333333333333</v>
       </c>
-      <c r="M62" s="16" t="s">
+      <c r="M64" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N64" s="17">
         <v>4.1333333333333337</v>
       </c>
-      <c r="O62" s="16"/>
-      <c r="P62" s="17">
+      <c r="O64" s="16"/>
+      <c r="P64" s="17">
         <v>4.0933333333333337</v>
       </c>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="15">
+      <c r="Q64" s="16"/>
+      <c r="R64" s="15">
         <v>4.1733333333333329</v>
       </c>
-      <c r="S62" s="16" t="s">
+      <c r="S64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T64" s="17">
         <v>4.1466666666666674</v>
       </c>
-      <c r="U62" s="16" t="s">
+      <c r="U64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V64" s="17">
         <v>3.746666666666667</v>
       </c>
-      <c r="W62" s="16"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="W64" s="16"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F65" s="20">
         <v>0.7252554899668594</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21">
+      <c r="G65" s="21"/>
+      <c r="H65" s="22">
         <v>0.5679351508495224</v>
       </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21">
+      <c r="I65" s="21"/>
+      <c r="J65" s="22">
         <v>0.82348090771379001</v>
       </c>
-      <c r="K63" s="20"/>
-      <c r="L63" s="19">
+      <c r="K65" s="21"/>
+      <c r="L65" s="20">
         <v>0.64375027333152601</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="21">
+      <c r="M65" s="21"/>
+      <c r="N65" s="22">
         <v>0.55344946138406015</v>
       </c>
-      <c r="O63" s="20"/>
-      <c r="P63" s="21">
+      <c r="O65" s="21"/>
+      <c r="P65" s="22">
         <v>0.77413130622606874</v>
       </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="19">
+      <c r="Q65" s="21"/>
+      <c r="R65" s="20">
         <v>0.79480293891738452</v>
       </c>
-      <c r="S63" s="20"/>
-      <c r="T63" s="21">
+      <c r="S65" s="21"/>
+      <c r="T65" s="22">
         <v>0.58571585522594738</v>
       </c>
-      <c r="U63" s="20"/>
-      <c r="V63" s="21">
+      <c r="U65" s="21"/>
+      <c r="V65" s="22">
         <v>0.83977689014715406</v>
       </c>
-      <c r="W63" s="20"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="W65" s="21"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F66" s="5">
         <v>150</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="4">
+      <c r="G66" s="6"/>
+      <c r="H66" s="4">
         <v>150</v>
       </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="4">
+      <c r="I66" s="6"/>
+      <c r="J66" s="4">
         <v>150</v>
       </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="5">
+      <c r="K66" s="6"/>
+      <c r="L66" s="5">
         <v>75</v>
       </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="4">
+      <c r="M66" s="6"/>
+      <c r="N66" s="4">
         <v>75</v>
       </c>
-      <c r="O64" s="6"/>
-      <c r="P64" s="4">
+      <c r="O66" s="6"/>
+      <c r="P66" s="4">
         <v>75</v>
       </c>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="5">
+      <c r="Q66" s="6"/>
+      <c r="R66" s="5">
         <v>75</v>
       </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="4">
+      <c r="S66" s="6"/>
+      <c r="T66" s="4">
         <v>75</v>
       </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="4">
+      <c r="U66" s="6"/>
+      <c r="V66" s="4">
         <v>75</v>
       </c>
-      <c r="W64" s="6"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="W66" s="6"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="10">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9"/>
-      <c r="N65" s="10">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="8">
-        <v>0</v>
-      </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="10">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9"/>
-      <c r="V65" s="10">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="8">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="10">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="10">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="8">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="S66" s="9"/>
-      <c r="T66" s="10">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="U66" s="9"/>
-      <c r="V66" s="10">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="W66" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
-      </c>
       <c r="E67" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F67" s="8">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="10">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K67" s="9"/>
       <c r="L67" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="8">
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="S67" s="9"/>
       <c r="T67" s="10">
-        <v>1.3333333333333331E-2</v>
+        <v>0</v>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="W67" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W67" s="9"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" t="s">
         <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F68" s="8">
-        <v>0.53333333333333333</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I68" s="9"/>
       <c r="J68" s="10">
-        <v>0.57333333333333336</v>
-      </c>
-      <c r="K68" s="9"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L68" s="8">
-        <v>0.52</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="O68" s="9"/>
       <c r="P68" s="10">
-        <v>0.52</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="8">
-        <v>0.54666666666666663</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="S68" s="9"/>
       <c r="T68" s="10">
-        <v>0.70666666666666667</v>
-      </c>
-      <c r="U68" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="U68" s="9"/>
       <c r="V68" s="10">
-        <v>0.62666666666666671</v>
-      </c>
-      <c r="W68" s="9"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="W68" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" t="s">
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F69" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G69" s="9"/>
       <c r="H69" s="10">
-        <v>0.21333333333333329</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="10">
-        <v>0.25333333333333341</v>
-      </c>
-      <c r="K69" s="9"/>
+        <v>0.08</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="L69" s="8">
-        <v>0.42666666666666669</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.2</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="O69" s="9"/>
       <c r="P69" s="10">
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="Q69" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="Q69" s="9"/>
       <c r="R69" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S69" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="S69" s="9"/>
       <c r="T69" s="10">
-        <v>0.22666666666666671</v>
+        <v>1.3333333333333331E-2</v>
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W69" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70" s="10">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="8">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="S70" s="9"/>
+      <c r="T70" s="10">
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V70" s="10">
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="W70" s="9"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0.21333333333333329</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="10">
+        <v>0.25333333333333341</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="8">
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N71" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O71" s="9"/>
+      <c r="P71" s="10">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R71" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" s="10">
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="U71" s="9"/>
+      <c r="V71" s="10">
         <v>0.16</v>
       </c>
-      <c r="W69" s="9"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="W71" s="9"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F72" s="12">
         <v>0.91333333333333333</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H72" s="13">
         <v>0.93333333333333335</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J72" s="13">
         <v>0.82666666666666666</v>
       </c>
-      <c r="K70" s="9"/>
-      <c r="L70" s="12">
+      <c r="K72" s="9"/>
+      <c r="L72" s="12">
         <v>0.94666666666666666</v>
       </c>
-      <c r="M70" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N70" s="13">
+      <c r="M72" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N72" s="13">
         <v>0.93333333333333335</v>
-      </c>
-      <c r="O70" s="9"/>
-      <c r="P70" s="13">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="12">
-        <v>0.88</v>
-      </c>
-      <c r="S70" s="9"/>
-      <c r="T70" s="13">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="U70" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V70" s="13">
-        <v>0.78666666666666663</v>
-      </c>
-      <c r="W70" s="9"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="12">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="13">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="13">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="12">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="S71" s="9"/>
-      <c r="T71" s="13">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="U71" s="9"/>
-      <c r="V71" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="W71" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" t="s">
-        <v>75</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="12">
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="13">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="13">
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="12">
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="M72" s="9"/>
-      <c r="N72" s="13">
-        <v>1.3333333333333331E-2</v>
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="13">
-        <v>5.3333333333333337E-2</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="12">
-        <v>9.3333333333333338E-2</v>
+        <v>0.88</v>
       </c>
       <c r="S72" s="9"/>
       <c r="T72" s="13">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V72" s="13">
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="W72" s="9"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="12">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="13">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="13">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="U72" s="9"/>
-      <c r="V72" s="13">
+      <c r="O73" s="9"/>
+      <c r="P73" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="12">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="S73" s="9"/>
+      <c r="T73" s="13">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="U73" s="9"/>
+      <c r="V73" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="W73" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="12">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="13">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="13">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L74" s="12">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="13">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="O74" s="9"/>
+      <c r="P74" s="13">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="12">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="S74" s="9"/>
+      <c r="T74" s="13">
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="U74" s="9"/>
+      <c r="V74" s="13">
         <v>0.1333333333333333</v>
       </c>
-      <c r="W72" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="W74" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F75" s="15">
         <v>4.24</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G75" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H75" s="17">
         <v>4.1133333333333333</v>
       </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="17">
+      <c r="I75" s="16"/>
+      <c r="J75" s="17">
         <v>3.9866666666666668</v>
       </c>
-      <c r="K73" s="16"/>
-      <c r="L73" s="15">
+      <c r="K75" s="16"/>
+      <c r="L75" s="15">
         <v>4.3600000000000003</v>
       </c>
-      <c r="M73" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="N73" s="17">
+      <c r="M75" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N75" s="17">
         <v>4.12</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="17">
+      <c r="O75" s="16"/>
+      <c r="P75" s="17">
         <v>4.16</v>
       </c>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="15">
+      <c r="Q75" s="16"/>
+      <c r="R75" s="15">
         <v>4.12</v>
       </c>
-      <c r="S73" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T73" s="17">
+      <c r="S75" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T75" s="17">
         <v>4.1066666666666656</v>
       </c>
-      <c r="U73" s="16" t="s">
+      <c r="U75" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V73" s="17">
+      <c r="V75" s="17">
         <v>3.813333333333333</v>
       </c>
-      <c r="W73" s="16"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="W75" s="16"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E76" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F76" s="20">
         <v>0.75689226845058233</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21">
+      <c r="G76" s="21"/>
+      <c r="H76" s="22">
         <v>0.60796355713224692</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21">
+      <c r="I76" s="21"/>
+      <c r="J76" s="22">
         <v>0.84334478421101788</v>
       </c>
-      <c r="K74" s="20"/>
-      <c r="L74" s="19">
+      <c r="K76" s="21"/>
+      <c r="L76" s="20">
         <v>0.62902756352617462</v>
       </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="21">
+      <c r="M76" s="21"/>
+      <c r="N76" s="22">
         <v>0.54425749073045948</v>
       </c>
-      <c r="O74" s="20"/>
-      <c r="P74" s="21">
+      <c r="O76" s="21"/>
+      <c r="P76" s="22">
         <v>0.78911513906571484</v>
       </c>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="19">
+      <c r="Q76" s="21"/>
+      <c r="R76" s="20">
         <v>0.85360918964632104</v>
       </c>
-      <c r="S74" s="20"/>
-      <c r="T74" s="21">
+      <c r="S76" s="21"/>
+      <c r="T76" s="22">
         <v>0.66927417993519511</v>
       </c>
-      <c r="U74" s="20"/>
-      <c r="V74" s="21">
+      <c r="U76" s="21"/>
+      <c r="V76" s="22">
         <v>0.86514072177216839</v>
       </c>
-      <c r="W74" s="20"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="W76" s="21"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F77" s="5">
         <v>150</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="4">
+      <c r="G77" s="6"/>
+      <c r="H77" s="4">
         <v>150</v>
       </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="4">
+      <c r="I77" s="6"/>
+      <c r="J77" s="4">
         <v>150</v>
       </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="5">
+      <c r="K77" s="6"/>
+      <c r="L77" s="5">
         <v>75</v>
       </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="4">
+      <c r="M77" s="6"/>
+      <c r="N77" s="4">
         <v>75</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="4">
+      <c r="O77" s="6"/>
+      <c r="P77" s="4">
         <v>75</v>
       </c>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="5">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="5">
         <v>75</v>
       </c>
-      <c r="S75" s="6"/>
-      <c r="T75" s="4">
+      <c r="S77" s="6"/>
+      <c r="T77" s="4">
         <v>75</v>
       </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="4">
+      <c r="U77" s="6"/>
+      <c r="V77" s="4">
         <v>75</v>
       </c>
-      <c r="W75" s="6"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="W77" s="6"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="8">
+      <c r="E78" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="8">
         <v>0.45333333333333331</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H78" s="10">
         <v>0.1866666666666667</v>
       </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="10">
+      <c r="I78" s="9"/>
+      <c r="J78" s="10">
         <v>0.36</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L78" s="8">
         <v>0.48</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N76" s="10">
+      <c r="N78" s="10">
         <v>0.17333333333333331</v>
       </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="10">
+      <c r="O78" s="9"/>
+      <c r="P78" s="10">
         <v>0.34666666666666668</v>
       </c>
-      <c r="Q76" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R78" s="8">
         <v>0.42666666666666669</v>
       </c>
-      <c r="S76" s="9" t="s">
+      <c r="S78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T78" s="10">
         <v>0.2</v>
       </c>
-      <c r="U76" s="9"/>
-      <c r="V76" s="10">
+      <c r="U78" s="9"/>
+      <c r="V78" s="10">
         <v>0.37333333333333341</v>
       </c>
-      <c r="W76" s="9" t="s">
+      <c r="W78" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="23">
+      <c r="E79" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="8">
         <v>0.54666666666666663</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25">
+      <c r="G79" s="9"/>
+      <c r="H79" s="10">
         <v>0.81333333333333335</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J77" s="25">
+      <c r="J79" s="10">
         <v>0.64</v>
       </c>
-      <c r="K77" s="24"/>
-      <c r="L77" s="23">
+      <c r="K79" s="9"/>
+      <c r="L79" s="8">
         <v>0.52</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="25">
+      <c r="M79" s="9"/>
+      <c r="N79" s="10">
         <v>0.82666666666666666</v>
       </c>
-      <c r="O77" s="24" t="s">
+      <c r="O79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P77" s="25">
+      <c r="P79" s="10">
         <v>0.65333333333333332</v>
       </c>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="23">
+      <c r="Q79" s="9"/>
+      <c r="R79" s="8">
         <v>0.57333333333333336</v>
       </c>
-      <c r="S77" s="24"/>
-      <c r="T77" s="25">
+      <c r="S79" s="9"/>
+      <c r="T79" s="10">
         <v>0.8</v>
       </c>
-      <c r="U77" s="24" t="s">
+      <c r="U79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="V77" s="25">
+      <c r="V79" s="10">
         <v>0.62666666666666671</v>
       </c>
-      <c r="W77" s="24"/>
+      <c r="W79" s="9"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="15">
+        <v>9.0666666666666673E-2</v>
+      </c>
+      <c r="G80" s="16">
+        <f>F78*0.2</f>
+        <v>9.0666666666666673E-2</v>
+      </c>
+      <c r="H80" s="17">
+        <v>3.7333333333333343E-2</v>
+      </c>
+      <c r="I80" s="16">
+        <f>H78*0.2</f>
+        <v>3.7333333333333343E-2</v>
+      </c>
+      <c r="J80" s="17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K80" s="16">
+        <f>J78*0.2</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L80" s="15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M80" s="16">
+        <f>L78*0.2</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N80" s="17">
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="O80" s="16">
+        <f>N78*0.2</f>
+        <v>3.4666666666666665E-2</v>
+      </c>
+      <c r="P80" s="17">
+        <v>6.9333333333333344E-2</v>
+      </c>
+      <c r="Q80" s="16">
+        <f>P78*0.2</f>
+        <v>6.9333333333333344E-2</v>
+      </c>
+      <c r="R80" s="15">
+        <v>8.5333333333333344E-2</v>
+      </c>
+      <c r="S80" s="16">
+        <f>R78*0.2</f>
+        <v>8.5333333333333344E-2</v>
+      </c>
+      <c r="T80" s="17">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="U80" s="16">
+        <f>T78*0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="V80" s="17">
+        <v>7.4666666666666673E-2</v>
+      </c>
+      <c r="W80" s="16">
+        <f>V78*0.2</f>
+        <v>7.4666666666666687E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="20">
+        <v>0.36266666666666669</v>
+      </c>
+      <c r="G81" s="21">
+        <f>F78*0.8</f>
+        <v>0.36266666666666669</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0.14933333333333329</v>
+      </c>
+      <c r="I81" s="21">
+        <f>H78*0.8</f>
+        <v>0.14933333333333337</v>
+      </c>
+      <c r="J81" s="22">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K81" s="21">
+        <f>J78*0.8</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L81" s="20">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="M81" s="21">
+        <f>L78*0.8</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N81" s="22">
+        <v>0.13866666666666669</v>
+      </c>
+      <c r="O81" s="21">
+        <f>N78*0.8</f>
+        <v>0.13866666666666666</v>
+      </c>
+      <c r="P81" s="22">
+        <v>0.27733333333333338</v>
+      </c>
+      <c r="Q81" s="21">
+        <f>P78*0.8</f>
+        <v>0.27733333333333338</v>
+      </c>
+      <c r="R81" s="20">
+        <v>0.34133333333333338</v>
+      </c>
+      <c r="S81" s="21">
+        <f>R78*0.8</f>
+        <v>0.34133333333333338</v>
+      </c>
+      <c r="T81" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="U81" s="21">
+        <f>T78*0.8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="V81" s="22">
+        <v>0.29866666666666669</v>
+      </c>
+      <c r="W81" s="21">
+        <f>V78*0.8</f>
+        <v>0.29866666666666675</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A64:A74"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B55:B65"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A8:A18"/>
-    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="A55:A65"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="F3:W3"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:A21"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R4:W4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" location="'Content'!B2" display="Content" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/tests/VN8413_Data_Topline.xlsx
+++ b/tests/VN8413_Data_Topline.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Content" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scr_Tagon_count" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scr_Tagon_pct" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,8 +59,20 @@
       <b val="1"/>
       <u val="single"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000070C0"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00E26B0A"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -101,8 +114,18 @@
         <fgColor rgb="00DAEEF3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5F1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0057DF8E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -204,11 +227,29 @@
       <top style="dotted"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -255,6 +296,47 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,10 +745,21 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4472,4 +4565,8048 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EN24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
+    <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="35" max="35"/>
+    <col width="7" customWidth="1" min="36" max="36"/>
+    <col width="7" customWidth="1" min="37" max="37"/>
+    <col width="7" customWidth="1" min="38" max="38"/>
+    <col width="7" customWidth="1" min="39" max="39"/>
+    <col width="7" customWidth="1" min="40" max="40"/>
+    <col width="7" customWidth="1" min="41" max="41"/>
+    <col width="7" customWidth="1" min="42" max="42"/>
+    <col width="7" customWidth="1" min="43" max="43"/>
+    <col width="7" customWidth="1" min="44" max="44"/>
+    <col width="7" customWidth="1" min="45" max="45"/>
+    <col width="7" customWidth="1" min="46" max="46"/>
+    <col width="7" customWidth="1" min="47" max="47"/>
+    <col width="7" customWidth="1" min="48" max="48"/>
+    <col width="7" customWidth="1" min="49" max="49"/>
+    <col width="7" customWidth="1" min="50" max="50"/>
+    <col width="7" customWidth="1" min="51" max="51"/>
+    <col width="7" customWidth="1" min="52" max="52"/>
+    <col width="7" customWidth="1" min="53" max="53"/>
+    <col width="7" customWidth="1" min="54" max="54"/>
+    <col width="7" customWidth="1" min="55" max="55"/>
+    <col width="7" customWidth="1" min="56" max="56"/>
+    <col width="7" customWidth="1" min="57" max="57"/>
+    <col width="7" customWidth="1" min="58" max="58"/>
+    <col width="7" customWidth="1" min="59" max="59"/>
+    <col width="7" customWidth="1" min="60" max="60"/>
+    <col width="7" customWidth="1" min="61" max="61"/>
+    <col width="7" customWidth="1" min="62" max="62"/>
+    <col width="7" customWidth="1" min="63" max="63"/>
+    <col width="7" customWidth="1" min="64" max="64"/>
+    <col width="7" customWidth="1" min="65" max="65"/>
+    <col width="7" customWidth="1" min="66" max="66"/>
+    <col width="7" customWidth="1" min="67" max="67"/>
+    <col width="7" customWidth="1" min="68" max="68"/>
+    <col width="7" customWidth="1" min="69" max="69"/>
+    <col width="7" customWidth="1" min="70" max="70"/>
+    <col width="7" customWidth="1" min="71" max="71"/>
+    <col width="7" customWidth="1" min="72" max="72"/>
+    <col width="7" customWidth="1" min="73" max="73"/>
+    <col width="7" customWidth="1" min="74" max="74"/>
+    <col width="7" customWidth="1" min="75" max="75"/>
+    <col width="7" customWidth="1" min="76" max="76"/>
+    <col width="7" customWidth="1" min="77" max="77"/>
+    <col width="7" customWidth="1" min="78" max="78"/>
+    <col width="7" customWidth="1" min="79" max="79"/>
+    <col width="7" customWidth="1" min="80" max="80"/>
+    <col width="7" customWidth="1" min="81" max="81"/>
+    <col width="7" customWidth="1" min="82" max="82"/>
+    <col width="7" customWidth="1" min="83" max="83"/>
+    <col width="7" customWidth="1" min="84" max="84"/>
+    <col width="7" customWidth="1" min="85" max="85"/>
+    <col width="7" customWidth="1" min="86" max="86"/>
+    <col width="7" customWidth="1" min="87" max="87"/>
+    <col width="7" customWidth="1" min="88" max="88"/>
+    <col width="7" customWidth="1" min="89" max="89"/>
+    <col width="7" customWidth="1" min="90" max="90"/>
+    <col width="7" customWidth="1" min="91" max="91"/>
+    <col width="7" customWidth="1" min="92" max="92"/>
+    <col width="7" customWidth="1" min="93" max="93"/>
+    <col width="7" customWidth="1" min="94" max="94"/>
+    <col width="7" customWidth="1" min="95" max="95"/>
+    <col width="7" customWidth="1" min="96" max="96"/>
+    <col width="7" customWidth="1" min="97" max="97"/>
+    <col width="7" customWidth="1" min="98" max="98"/>
+    <col width="7" customWidth="1" min="99" max="99"/>
+    <col width="7" customWidth="1" min="100" max="100"/>
+    <col width="7" customWidth="1" min="101" max="101"/>
+    <col width="7" customWidth="1" min="102" max="102"/>
+    <col width="7" customWidth="1" min="103" max="103"/>
+    <col width="7" customWidth="1" min="104" max="104"/>
+    <col width="7" customWidth="1" min="105" max="105"/>
+    <col width="7" customWidth="1" min="106" max="106"/>
+    <col width="7" customWidth="1" min="107" max="107"/>
+    <col width="7" customWidth="1" min="108" max="108"/>
+    <col width="7" customWidth="1" min="109" max="109"/>
+    <col width="7" customWidth="1" min="110" max="110"/>
+    <col width="7" customWidth="1" min="111" max="111"/>
+    <col width="7" customWidth="1" min="112" max="112"/>
+    <col width="7" customWidth="1" min="113" max="113"/>
+    <col width="7" customWidth="1" min="114" max="114"/>
+    <col width="7" customWidth="1" min="115" max="115"/>
+    <col width="7" customWidth="1" min="116" max="116"/>
+    <col width="7" customWidth="1" min="117" max="117"/>
+    <col width="7" customWidth="1" min="118" max="118"/>
+    <col width="7" customWidth="1" min="119" max="119"/>
+    <col width="7" customWidth="1" min="120" max="120"/>
+    <col width="7" customWidth="1" min="121" max="121"/>
+    <col width="7" customWidth="1" min="122" max="122"/>
+    <col width="7" customWidth="1" min="123" max="123"/>
+    <col width="7" customWidth="1" min="124" max="124"/>
+    <col width="7" customWidth="1" min="125" max="125"/>
+    <col width="7" customWidth="1" min="126" max="126"/>
+    <col width="7" customWidth="1" min="127" max="127"/>
+    <col width="7" customWidth="1" min="128" max="128"/>
+    <col width="7" customWidth="1" min="129" max="129"/>
+    <col width="7" customWidth="1" min="130" max="130"/>
+    <col width="7" customWidth="1" min="131" max="131"/>
+    <col width="7" customWidth="1" min="132" max="132"/>
+    <col width="7" customWidth="1" min="133" max="133"/>
+    <col width="7" customWidth="1" min="134" max="134"/>
+    <col width="7" customWidth="1" min="135" max="135"/>
+    <col width="7" customWidth="1" min="136" max="136"/>
+    <col width="7" customWidth="1" min="137" max="137"/>
+    <col width="7" customWidth="1" min="138" max="138"/>
+    <col width="7" customWidth="1" min="139" max="139"/>
+    <col width="7" customWidth="1" min="140" max="140"/>
+    <col width="7" customWidth="1" min="141" max="141"/>
+    <col width="7" customWidth="1" min="142" max="142"/>
+    <col width="7" customWidth="1" min="143" max="143"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>qre_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>qre_lbl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>qre_type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>cat_val</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>cat_lbl</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@TOTAL@Age@TOTAL@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@TOTAL@Age@TOTAL@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@TOTAL@Age@TOTAL@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@TOTAL@Age@TOTAL@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@TOTAL@Age@TOTAL@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@TOTAL@Age@TOTAL@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@TOTAL@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@TOTAL@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@TOTAL@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@TOTAL@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Tiger nâu@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Sài Gòn@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Larue@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1@City@TOTAL@BUMO@Larue@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Larue@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2@City@TOTAL@BUMO@Larue@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Larue@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3@City@TOTAL@BUMO@Larue@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@TOTAL@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="CD1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@Hồ Chí Minh@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="CF1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="CG1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="CH1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="CI1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="CK1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@Hồ Chí Minh@BUMO@Tiger nâu@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="CL1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="CM1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="CN1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="CO1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="CP1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="CQ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@Hồ Chí Minh@BUMO@Sài Gòn@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="CR1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="CS1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 1@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="CT1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="CU1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 2@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="CV1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="CW1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 3@City@Cần Thơ@Age@TOTAL@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="CX1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="CY1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 1@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="CZ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="DA1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 2@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="DB1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="DC1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 3@City@Cần Thơ@Age@&lt;=30 (22-30 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="DD1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="DE1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="DF1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="DG1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="DH1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="DI1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3@City@Cần Thơ@Age@&gt;30 (31-39 tuổi)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="DK1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="DL1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="DM1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="DN1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="DO1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3@City@Cần Thơ@Class@A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="DP1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="DQ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 1@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="DR1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="DS1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 2@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="DT1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="DU1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 3@City@Cần Thơ@Class@C (Từ 7,500,000 đến 13,499,000 VND)@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="DV1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="DW1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="DX1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="DY1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="DZ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="EA1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Tiger nâu@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="EB1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="EC1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="ED1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="EE1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="EF1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="EG1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Sài Gòn@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+      <c r="EH1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 1@val@A</t>
+        </is>
+      </c>
+      <c r="EI1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 1@sig@A</t>
+        </is>
+      </c>
+      <c r="EJ1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 2@val@B</t>
+        </is>
+      </c>
+      <c r="EK1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 2@sig@B</t>
+        </is>
+      </c>
+      <c r="EL1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 3@val@C</t>
+        </is>
+      </c>
+      <c r="EM1" s="2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3@City@Cần Thơ@BUMO@Larue@Mã Concept@Concept 3@sig@C</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>S1 &gt; 0 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>S1 == 3 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b &gt; 0 &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S3_b.isin([3, 4]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([1, 2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S4.isin([3]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([2]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([6, 7, 8]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 1</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 2</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>S1 == 4 &amp; S8.isin([12, 13, 14]) &amp; Ma_SP == 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cell content: percentage(%)</t>
+        </is>
+      </c>
+      <c r="F3" s="30" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="31" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="31" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="5" t="n"/>
+      <c r="X3" s="31" t="n"/>
+      <c r="Y3" s="5" t="n"/>
+      <c r="Z3" s="5" t="n"/>
+      <c r="AA3" s="5" t="n"/>
+      <c r="AB3" s="5" t="n"/>
+      <c r="AC3" s="5" t="n"/>
+      <c r="AD3" s="31" t="n"/>
+      <c r="AE3" s="5" t="n"/>
+      <c r="AF3" s="5" t="n"/>
+      <c r="AG3" s="5" t="n"/>
+      <c r="AH3" s="5" t="n"/>
+      <c r="AI3" s="5" t="n"/>
+      <c r="AJ3" s="31" t="n"/>
+      <c r="AK3" s="5" t="n"/>
+      <c r="AL3" s="5" t="n"/>
+      <c r="AM3" s="5" t="n"/>
+      <c r="AN3" s="5" t="n"/>
+      <c r="AO3" s="5" t="n"/>
+      <c r="AP3" s="31" t="n"/>
+      <c r="AQ3" s="5" t="n"/>
+      <c r="AR3" s="5" t="n"/>
+      <c r="AS3" s="5" t="n"/>
+      <c r="AT3" s="5" t="n"/>
+      <c r="AU3" s="5" t="n"/>
+      <c r="AV3" s="31" t="n"/>
+      <c r="AW3" s="5" t="n"/>
+      <c r="AX3" s="5" t="n"/>
+      <c r="AY3" s="5" t="n"/>
+      <c r="AZ3" s="5" t="n"/>
+      <c r="BA3" s="5" t="n"/>
+      <c r="BB3" s="31" t="n"/>
+      <c r="BC3" s="5" t="n"/>
+      <c r="BD3" s="5" t="n"/>
+      <c r="BE3" s="5" t="n"/>
+      <c r="BF3" s="5" t="n"/>
+      <c r="BG3" s="5" t="n"/>
+      <c r="BH3" s="31" t="n"/>
+      <c r="BI3" s="5" t="n"/>
+      <c r="BJ3" s="5" t="n"/>
+      <c r="BK3" s="5" t="n"/>
+      <c r="BL3" s="5" t="n"/>
+      <c r="BM3" s="5" t="n"/>
+      <c r="BN3" s="31" t="n"/>
+      <c r="BO3" s="5" t="n"/>
+      <c r="BP3" s="5" t="n"/>
+      <c r="BQ3" s="5" t="n"/>
+      <c r="BR3" s="5" t="n"/>
+      <c r="BS3" s="5" t="n"/>
+      <c r="BT3" s="31" t="n"/>
+      <c r="BU3" s="5" t="n"/>
+      <c r="BV3" s="5" t="n"/>
+      <c r="BW3" s="5" t="n"/>
+      <c r="BX3" s="5" t="n"/>
+      <c r="BY3" s="5" t="n"/>
+      <c r="BZ3" s="31" t="n"/>
+      <c r="CA3" s="5" t="n"/>
+      <c r="CB3" s="5" t="n"/>
+      <c r="CC3" s="5" t="n"/>
+      <c r="CD3" s="5" t="n"/>
+      <c r="CE3" s="5" t="n"/>
+      <c r="CF3" s="31" t="n"/>
+      <c r="CG3" s="5" t="n"/>
+      <c r="CH3" s="5" t="n"/>
+      <c r="CI3" s="5" t="n"/>
+      <c r="CJ3" s="5" t="n"/>
+      <c r="CK3" s="5" t="n"/>
+      <c r="CL3" s="31" t="n"/>
+      <c r="CM3" s="5" t="n"/>
+      <c r="CN3" s="5" t="n"/>
+      <c r="CO3" s="5" t="n"/>
+      <c r="CP3" s="5" t="n"/>
+      <c r="CQ3" s="5" t="n"/>
+      <c r="CR3" s="31" t="n"/>
+      <c r="CS3" s="5" t="n"/>
+      <c r="CT3" s="5" t="n"/>
+      <c r="CU3" s="5" t="n"/>
+      <c r="CV3" s="5" t="n"/>
+      <c r="CW3" s="5" t="n"/>
+      <c r="CX3" s="31" t="n"/>
+      <c r="CY3" s="5" t="n"/>
+      <c r="CZ3" s="5" t="n"/>
+      <c r="DA3" s="5" t="n"/>
+      <c r="DB3" s="5" t="n"/>
+      <c r="DC3" s="5" t="n"/>
+      <c r="DD3" s="31" t="n"/>
+      <c r="DE3" s="5" t="n"/>
+      <c r="DF3" s="5" t="n"/>
+      <c r="DG3" s="5" t="n"/>
+      <c r="DH3" s="5" t="n"/>
+      <c r="DI3" s="5" t="n"/>
+      <c r="DJ3" s="31" t="n"/>
+      <c r="DK3" s="5" t="n"/>
+      <c r="DL3" s="5" t="n"/>
+      <c r="DM3" s="5" t="n"/>
+      <c r="DN3" s="5" t="n"/>
+      <c r="DO3" s="5" t="n"/>
+      <c r="DP3" s="31" t="n"/>
+      <c r="DQ3" s="5" t="n"/>
+      <c r="DR3" s="5" t="n"/>
+      <c r="DS3" s="5" t="n"/>
+      <c r="DT3" s="5" t="n"/>
+      <c r="DU3" s="5" t="n"/>
+      <c r="DV3" s="31" t="n"/>
+      <c r="DW3" s="5" t="n"/>
+      <c r="DX3" s="5" t="n"/>
+      <c r="DY3" s="5" t="n"/>
+      <c r="DZ3" s="5" t="n"/>
+      <c r="EA3" s="5" t="n"/>
+      <c r="EB3" s="31" t="n"/>
+      <c r="EC3" s="5" t="n"/>
+      <c r="ED3" s="5" t="n"/>
+      <c r="EE3" s="5" t="n"/>
+      <c r="EF3" s="5" t="n"/>
+      <c r="EG3" s="5" t="n"/>
+      <c r="EH3" s="31" t="n"/>
+      <c r="EI3" s="5" t="n"/>
+      <c r="EJ3" s="5" t="n"/>
+      <c r="EK3" s="5" t="n"/>
+      <c r="EL3" s="5" t="n"/>
+      <c r="EM3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dependent Pair T-test at level 90% &amp; 95%</t>
+        </is>
+      </c>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="31" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="31" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="5" t="n"/>
+      <c r="W4" s="5" t="n"/>
+      <c r="X4" s="31" t="n"/>
+      <c r="Y4" s="5" t="n"/>
+      <c r="Z4" s="5" t="n"/>
+      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
+      <c r="AC4" s="5" t="n"/>
+      <c r="AD4" s="31" t="n"/>
+      <c r="AE4" s="5" t="n"/>
+      <c r="AF4" s="5" t="n"/>
+      <c r="AG4" s="5" t="n"/>
+      <c r="AH4" s="5" t="n"/>
+      <c r="AI4" s="5" t="n"/>
+      <c r="AJ4" s="31" t="n"/>
+      <c r="AK4" s="5" t="n"/>
+      <c r="AL4" s="5" t="n"/>
+      <c r="AM4" s="5" t="n"/>
+      <c r="AN4" s="5" t="n"/>
+      <c r="AO4" s="5" t="n"/>
+      <c r="AP4" s="31" t="n"/>
+      <c r="AQ4" s="5" t="n"/>
+      <c r="AR4" s="5" t="n"/>
+      <c r="AS4" s="5" t="n"/>
+      <c r="AT4" s="5" t="n"/>
+      <c r="AU4" s="5" t="n"/>
+      <c r="AV4" s="31" t="n"/>
+      <c r="AW4" s="5" t="n"/>
+      <c r="AX4" s="5" t="n"/>
+      <c r="AY4" s="5" t="n"/>
+      <c r="AZ4" s="5" t="n"/>
+      <c r="BA4" s="6" t="n"/>
+      <c r="BB4" s="32" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="BC4" s="5" t="n"/>
+      <c r="BD4" s="5" t="n"/>
+      <c r="BE4" s="5" t="n"/>
+      <c r="BF4" s="5" t="n"/>
+      <c r="BG4" s="5" t="n"/>
+      <c r="BH4" s="31" t="n"/>
+      <c r="BI4" s="5" t="n"/>
+      <c r="BJ4" s="5" t="n"/>
+      <c r="BK4" s="5" t="n"/>
+      <c r="BL4" s="5" t="n"/>
+      <c r="BM4" s="5" t="n"/>
+      <c r="BN4" s="31" t="n"/>
+      <c r="BO4" s="5" t="n"/>
+      <c r="BP4" s="5" t="n"/>
+      <c r="BQ4" s="5" t="n"/>
+      <c r="BR4" s="5" t="n"/>
+      <c r="BS4" s="5" t="n"/>
+      <c r="BT4" s="31" t="n"/>
+      <c r="BU4" s="5" t="n"/>
+      <c r="BV4" s="5" t="n"/>
+      <c r="BW4" s="5" t="n"/>
+      <c r="BX4" s="5" t="n"/>
+      <c r="BY4" s="5" t="n"/>
+      <c r="BZ4" s="31" t="n"/>
+      <c r="CA4" s="5" t="n"/>
+      <c r="CB4" s="5" t="n"/>
+      <c r="CC4" s="5" t="n"/>
+      <c r="CD4" s="5" t="n"/>
+      <c r="CE4" s="5" t="n"/>
+      <c r="CF4" s="31" t="n"/>
+      <c r="CG4" s="5" t="n"/>
+      <c r="CH4" s="5" t="n"/>
+      <c r="CI4" s="5" t="n"/>
+      <c r="CJ4" s="5" t="n"/>
+      <c r="CK4" s="5" t="n"/>
+      <c r="CL4" s="31" t="n"/>
+      <c r="CM4" s="5" t="n"/>
+      <c r="CN4" s="5" t="n"/>
+      <c r="CO4" s="5" t="n"/>
+      <c r="CP4" s="5" t="n"/>
+      <c r="CQ4" s="6" t="n"/>
+      <c r="CR4" s="32" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="CS4" s="5" t="n"/>
+      <c r="CT4" s="5" t="n"/>
+      <c r="CU4" s="5" t="n"/>
+      <c r="CV4" s="5" t="n"/>
+      <c r="CW4" s="5" t="n"/>
+      <c r="CX4" s="31" t="n"/>
+      <c r="CY4" s="5" t="n"/>
+      <c r="CZ4" s="5" t="n"/>
+      <c r="DA4" s="5" t="n"/>
+      <c r="DB4" s="5" t="n"/>
+      <c r="DC4" s="5" t="n"/>
+      <c r="DD4" s="31" t="n"/>
+      <c r="DE4" s="5" t="n"/>
+      <c r="DF4" s="5" t="n"/>
+      <c r="DG4" s="5" t="n"/>
+      <c r="DH4" s="5" t="n"/>
+      <c r="DI4" s="5" t="n"/>
+      <c r="DJ4" s="31" t="n"/>
+      <c r="DK4" s="5" t="n"/>
+      <c r="DL4" s="5" t="n"/>
+      <c r="DM4" s="5" t="n"/>
+      <c r="DN4" s="5" t="n"/>
+      <c r="DO4" s="5" t="n"/>
+      <c r="DP4" s="31" t="n"/>
+      <c r="DQ4" s="5" t="n"/>
+      <c r="DR4" s="5" t="n"/>
+      <c r="DS4" s="5" t="n"/>
+      <c r="DT4" s="5" t="n"/>
+      <c r="DU4" s="5" t="n"/>
+      <c r="DV4" s="31" t="n"/>
+      <c r="DW4" s="5" t="n"/>
+      <c r="DX4" s="5" t="n"/>
+      <c r="DY4" s="5" t="n"/>
+      <c r="DZ4" s="5" t="n"/>
+      <c r="EA4" s="5" t="n"/>
+      <c r="EB4" s="31" t="n"/>
+      <c r="EC4" s="5" t="n"/>
+      <c r="ED4" s="5" t="n"/>
+      <c r="EE4" s="5" t="n"/>
+      <c r="EF4" s="5" t="n"/>
+      <c r="EG4" s="5" t="n"/>
+      <c r="EH4" s="31" t="n"/>
+      <c r="EI4" s="5" t="n"/>
+      <c r="EJ4" s="5" t="n"/>
+      <c r="EK4" s="5" t="n"/>
+      <c r="EL4" s="5" t="n"/>
+      <c r="EM4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Columns Tested: A/B, A/C, B/C</t>
+        </is>
+      </c>
+      <c r="F5" s="33" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="31" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="5" t="n"/>
+      <c r="R5" s="31" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="5" t="n"/>
+      <c r="W5" s="6" t="n"/>
+      <c r="X5" s="33" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="n"/>
+      <c r="Z5" s="5" t="n"/>
+      <c r="AA5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
+      <c r="AC5" s="5" t="n"/>
+      <c r="AD5" s="31" t="n"/>
+      <c r="AE5" s="5" t="n"/>
+      <c r="AF5" s="5" t="n"/>
+      <c r="AG5" s="5" t="n"/>
+      <c r="AH5" s="5" t="n"/>
+      <c r="AI5" s="6" t="n"/>
+      <c r="AJ5" s="33" t="inlineStr">
+        <is>
+          <t>BUMO</t>
+        </is>
+      </c>
+      <c r="AK5" s="5" t="n"/>
+      <c r="AL5" s="5" t="n"/>
+      <c r="AM5" s="5" t="n"/>
+      <c r="AN5" s="5" t="n"/>
+      <c r="AO5" s="5" t="n"/>
+      <c r="AP5" s="31" t="n"/>
+      <c r="AQ5" s="5" t="n"/>
+      <c r="AR5" s="5" t="n"/>
+      <c r="AS5" s="5" t="n"/>
+      <c r="AT5" s="5" t="n"/>
+      <c r="AU5" s="5" t="n"/>
+      <c r="AV5" s="31" t="n"/>
+      <c r="AW5" s="5" t="n"/>
+      <c r="AX5" s="5" t="n"/>
+      <c r="AY5" s="5" t="n"/>
+      <c r="AZ5" s="5" t="n"/>
+      <c r="BA5" s="6" t="n"/>
+      <c r="BB5" s="33" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="BC5" s="5" t="n"/>
+      <c r="BD5" s="5" t="n"/>
+      <c r="BE5" s="5" t="n"/>
+      <c r="BF5" s="5" t="n"/>
+      <c r="BG5" s="5" t="n"/>
+      <c r="BH5" s="31" t="n"/>
+      <c r="BI5" s="5" t="n"/>
+      <c r="BJ5" s="5" t="n"/>
+      <c r="BK5" s="5" t="n"/>
+      <c r="BL5" s="5" t="n"/>
+      <c r="BM5" s="5" t="n"/>
+      <c r="BN5" s="31" t="n"/>
+      <c r="BO5" s="5" t="n"/>
+      <c r="BP5" s="5" t="n"/>
+      <c r="BQ5" s="5" t="n"/>
+      <c r="BR5" s="5" t="n"/>
+      <c r="BS5" s="6" t="n"/>
+      <c r="BT5" s="33" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="BU5" s="5" t="n"/>
+      <c r="BV5" s="5" t="n"/>
+      <c r="BW5" s="5" t="n"/>
+      <c r="BX5" s="5" t="n"/>
+      <c r="BY5" s="5" t="n"/>
+      <c r="BZ5" s="31" t="n"/>
+      <c r="CA5" s="5" t="n"/>
+      <c r="CB5" s="5" t="n"/>
+      <c r="CC5" s="5" t="n"/>
+      <c r="CD5" s="5" t="n"/>
+      <c r="CE5" s="6" t="n"/>
+      <c r="CF5" s="33" t="inlineStr">
+        <is>
+          <t>BUMO</t>
+        </is>
+      </c>
+      <c r="CG5" s="5" t="n"/>
+      <c r="CH5" s="5" t="n"/>
+      <c r="CI5" s="5" t="n"/>
+      <c r="CJ5" s="5" t="n"/>
+      <c r="CK5" s="5" t="n"/>
+      <c r="CL5" s="31" t="n"/>
+      <c r="CM5" s="5" t="n"/>
+      <c r="CN5" s="5" t="n"/>
+      <c r="CO5" s="5" t="n"/>
+      <c r="CP5" s="5" t="n"/>
+      <c r="CQ5" s="6" t="n"/>
+      <c r="CR5" s="33" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="CS5" s="5" t="n"/>
+      <c r="CT5" s="5" t="n"/>
+      <c r="CU5" s="5" t="n"/>
+      <c r="CV5" s="5" t="n"/>
+      <c r="CW5" s="5" t="n"/>
+      <c r="CX5" s="31" t="n"/>
+      <c r="CY5" s="5" t="n"/>
+      <c r="CZ5" s="5" t="n"/>
+      <c r="DA5" s="5" t="n"/>
+      <c r="DB5" s="5" t="n"/>
+      <c r="DC5" s="5" t="n"/>
+      <c r="DD5" s="31" t="n"/>
+      <c r="DE5" s="5" t="n"/>
+      <c r="DF5" s="5" t="n"/>
+      <c r="DG5" s="5" t="n"/>
+      <c r="DH5" s="5" t="n"/>
+      <c r="DI5" s="6" t="n"/>
+      <c r="DJ5" s="33" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="DK5" s="5" t="n"/>
+      <c r="DL5" s="5" t="n"/>
+      <c r="DM5" s="5" t="n"/>
+      <c r="DN5" s="5" t="n"/>
+      <c r="DO5" s="5" t="n"/>
+      <c r="DP5" s="31" t="n"/>
+      <c r="DQ5" s="5" t="n"/>
+      <c r="DR5" s="5" t="n"/>
+      <c r="DS5" s="5" t="n"/>
+      <c r="DT5" s="5" t="n"/>
+      <c r="DU5" s="6" t="n"/>
+      <c r="DV5" s="33" t="inlineStr">
+        <is>
+          <t>BUMO</t>
+        </is>
+      </c>
+      <c r="DW5" s="5" t="n"/>
+      <c r="DX5" s="5" t="n"/>
+      <c r="DY5" s="5" t="n"/>
+      <c r="DZ5" s="5" t="n"/>
+      <c r="EA5" s="5" t="n"/>
+      <c r="EB5" s="31" t="n"/>
+      <c r="EC5" s="5" t="n"/>
+      <c r="ED5" s="5" t="n"/>
+      <c r="EE5" s="5" t="n"/>
+      <c r="EF5" s="5" t="n"/>
+      <c r="EG5" s="5" t="n"/>
+      <c r="EH5" s="31" t="n"/>
+      <c r="EI5" s="5" t="n"/>
+      <c r="EJ5" s="5" t="n"/>
+      <c r="EK5" s="5" t="n"/>
+      <c r="EL5" s="5" t="n"/>
+      <c r="EM5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uppercase for 95%, lowercase for 90%</t>
+        </is>
+      </c>
+      <c r="F6" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="34" t="inlineStr">
+        <is>
+          <t>&lt;=30 (22-30 tuổi)</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="34" t="inlineStr">
+        <is>
+          <t>&gt;30 (31-39 tuổi)</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="6" t="n"/>
+      <c r="X6" s="34" t="inlineStr">
+        <is>
+          <t>A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n"/>
+      <c r="Z6" s="5" t="n"/>
+      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
+      <c r="AC6" s="6" t="n"/>
+      <c r="AD6" s="34" t="inlineStr">
+        <is>
+          <t>C (Từ 7,500,000 đến 13,499,000 VND)</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="n"/>
+      <c r="AF6" s="5" t="n"/>
+      <c r="AG6" s="5" t="n"/>
+      <c r="AH6" s="5" t="n"/>
+      <c r="AI6" s="6" t="n"/>
+      <c r="AJ6" s="34" t="inlineStr">
+        <is>
+          <t>Tiger nâu</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="n"/>
+      <c r="AL6" s="5" t="n"/>
+      <c r="AM6" s="5" t="n"/>
+      <c r="AN6" s="5" t="n"/>
+      <c r="AO6" s="6" t="n"/>
+      <c r="AP6" s="34" t="inlineStr">
+        <is>
+          <t>Sài Gòn</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="n"/>
+      <c r="AR6" s="5" t="n"/>
+      <c r="AS6" s="5" t="n"/>
+      <c r="AT6" s="5" t="n"/>
+      <c r="AU6" s="6" t="n"/>
+      <c r="AV6" s="34" t="inlineStr">
+        <is>
+          <t>Larue</t>
+        </is>
+      </c>
+      <c r="AW6" s="5" t="n"/>
+      <c r="AX6" s="5" t="n"/>
+      <c r="AY6" s="5" t="n"/>
+      <c r="AZ6" s="5" t="n"/>
+      <c r="BA6" s="6" t="n"/>
+      <c r="BB6" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="BC6" s="5" t="n"/>
+      <c r="BD6" s="5" t="n"/>
+      <c r="BE6" s="5" t="n"/>
+      <c r="BF6" s="5" t="n"/>
+      <c r="BG6" s="6" t="n"/>
+      <c r="BH6" s="34" t="inlineStr">
+        <is>
+          <t>&lt;=30 (22-30 tuổi)</t>
+        </is>
+      </c>
+      <c r="BI6" s="5" t="n"/>
+      <c r="BJ6" s="5" t="n"/>
+      <c r="BK6" s="5" t="n"/>
+      <c r="BL6" s="5" t="n"/>
+      <c r="BM6" s="6" t="n"/>
+      <c r="BN6" s="34" t="inlineStr">
+        <is>
+          <t>&gt;30 (31-39 tuổi)</t>
+        </is>
+      </c>
+      <c r="BO6" s="5" t="n"/>
+      <c r="BP6" s="5" t="n"/>
+      <c r="BQ6" s="5" t="n"/>
+      <c r="BR6" s="5" t="n"/>
+      <c r="BS6" s="6" t="n"/>
+      <c r="BT6" s="34" t="inlineStr">
+        <is>
+          <t>A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)</t>
+        </is>
+      </c>
+      <c r="BU6" s="5" t="n"/>
+      <c r="BV6" s="5" t="n"/>
+      <c r="BW6" s="5" t="n"/>
+      <c r="BX6" s="5" t="n"/>
+      <c r="BY6" s="6" t="n"/>
+      <c r="BZ6" s="34" t="inlineStr">
+        <is>
+          <t>C (Từ 7,500,000 đến 13,499,000 VND)</t>
+        </is>
+      </c>
+      <c r="CA6" s="5" t="n"/>
+      <c r="CB6" s="5" t="n"/>
+      <c r="CC6" s="5" t="n"/>
+      <c r="CD6" s="5" t="n"/>
+      <c r="CE6" s="6" t="n"/>
+      <c r="CF6" s="34" t="inlineStr">
+        <is>
+          <t>Tiger nâu</t>
+        </is>
+      </c>
+      <c r="CG6" s="5" t="n"/>
+      <c r="CH6" s="5" t="n"/>
+      <c r="CI6" s="5" t="n"/>
+      <c r="CJ6" s="5" t="n"/>
+      <c r="CK6" s="6" t="n"/>
+      <c r="CL6" s="34" t="inlineStr">
+        <is>
+          <t>Sài Gòn</t>
+        </is>
+      </c>
+      <c r="CM6" s="5" t="n"/>
+      <c r="CN6" s="5" t="n"/>
+      <c r="CO6" s="5" t="n"/>
+      <c r="CP6" s="5" t="n"/>
+      <c r="CQ6" s="6" t="n"/>
+      <c r="CR6" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="CS6" s="5" t="n"/>
+      <c r="CT6" s="5" t="n"/>
+      <c r="CU6" s="5" t="n"/>
+      <c r="CV6" s="5" t="n"/>
+      <c r="CW6" s="6" t="n"/>
+      <c r="CX6" s="34" t="inlineStr">
+        <is>
+          <t>&lt;=30 (22-30 tuổi)</t>
+        </is>
+      </c>
+      <c r="CY6" s="5" t="n"/>
+      <c r="CZ6" s="5" t="n"/>
+      <c r="DA6" s="5" t="n"/>
+      <c r="DB6" s="5" t="n"/>
+      <c r="DC6" s="6" t="n"/>
+      <c r="DD6" s="34" t="inlineStr">
+        <is>
+          <t>&gt;30 (31-39 tuổi)</t>
+        </is>
+      </c>
+      <c r="DE6" s="5" t="n"/>
+      <c r="DF6" s="5" t="n"/>
+      <c r="DG6" s="5" t="n"/>
+      <c r="DH6" s="5" t="n"/>
+      <c r="DI6" s="6" t="n"/>
+      <c r="DJ6" s="34" t="inlineStr">
+        <is>
+          <t>A&amp;B (Từ 13,500,000 đến 22,499,000 VND &amp; Trên 22,500,000)</t>
+        </is>
+      </c>
+      <c r="DK6" s="5" t="n"/>
+      <c r="DL6" s="5" t="n"/>
+      <c r="DM6" s="5" t="n"/>
+      <c r="DN6" s="5" t="n"/>
+      <c r="DO6" s="6" t="n"/>
+      <c r="DP6" s="34" t="inlineStr">
+        <is>
+          <t>C (Từ 7,500,000 đến 13,499,000 VND)</t>
+        </is>
+      </c>
+      <c r="DQ6" s="5" t="n"/>
+      <c r="DR6" s="5" t="n"/>
+      <c r="DS6" s="5" t="n"/>
+      <c r="DT6" s="5" t="n"/>
+      <c r="DU6" s="6" t="n"/>
+      <c r="DV6" s="34" t="inlineStr">
+        <is>
+          <t>Tiger nâu</t>
+        </is>
+      </c>
+      <c r="DW6" s="5" t="n"/>
+      <c r="DX6" s="5" t="n"/>
+      <c r="DY6" s="5" t="n"/>
+      <c r="DZ6" s="5" t="n"/>
+      <c r="EA6" s="6" t="n"/>
+      <c r="EB6" s="34" t="inlineStr">
+        <is>
+          <t>Sài Gòn</t>
+        </is>
+      </c>
+      <c r="EC6" s="5" t="n"/>
+      <c r="ED6" s="5" t="n"/>
+      <c r="EE6" s="5" t="n"/>
+      <c r="EF6" s="5" t="n"/>
+      <c r="EG6" s="6" t="n"/>
+      <c r="EH6" s="34" t="inlineStr">
+        <is>
+          <t>Larue</t>
+        </is>
+      </c>
+      <c r="EI6" s="5" t="n"/>
+      <c r="EJ6" s="5" t="n"/>
+      <c r="EK6" s="5" t="n"/>
+      <c r="EL6" s="5" t="n"/>
+      <c r="EM6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="F7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="5" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="5" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n"/>
+      <c r="Z7" s="5" t="n"/>
+      <c r="AA7" s="5" t="n"/>
+      <c r="AB7" s="5" t="n"/>
+      <c r="AC7" s="6" t="n"/>
+      <c r="AD7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="AE7" s="5" t="n"/>
+      <c r="AF7" s="5" t="n"/>
+      <c r="AG7" s="5" t="n"/>
+      <c r="AH7" s="5" t="n"/>
+      <c r="AI7" s="6" t="n"/>
+      <c r="AJ7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="AK7" s="5" t="n"/>
+      <c r="AL7" s="5" t="n"/>
+      <c r="AM7" s="5" t="n"/>
+      <c r="AN7" s="5" t="n"/>
+      <c r="AO7" s="6" t="n"/>
+      <c r="AP7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="AQ7" s="5" t="n"/>
+      <c r="AR7" s="5" t="n"/>
+      <c r="AS7" s="5" t="n"/>
+      <c r="AT7" s="5" t="n"/>
+      <c r="AU7" s="6" t="n"/>
+      <c r="AV7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="AW7" s="5" t="n"/>
+      <c r="AX7" s="5" t="n"/>
+      <c r="AY7" s="5" t="n"/>
+      <c r="AZ7" s="5" t="n"/>
+      <c r="BA7" s="6" t="n"/>
+      <c r="BB7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="BC7" s="5" t="n"/>
+      <c r="BD7" s="5" t="n"/>
+      <c r="BE7" s="5" t="n"/>
+      <c r="BF7" s="5" t="n"/>
+      <c r="BG7" s="6" t="n"/>
+      <c r="BH7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="BI7" s="5" t="n"/>
+      <c r="BJ7" s="5" t="n"/>
+      <c r="BK7" s="5" t="n"/>
+      <c r="BL7" s="5" t="n"/>
+      <c r="BM7" s="6" t="n"/>
+      <c r="BN7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="BO7" s="5" t="n"/>
+      <c r="BP7" s="5" t="n"/>
+      <c r="BQ7" s="5" t="n"/>
+      <c r="BR7" s="5" t="n"/>
+      <c r="BS7" s="6" t="n"/>
+      <c r="BT7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="BU7" s="5" t="n"/>
+      <c r="BV7" s="5" t="n"/>
+      <c r="BW7" s="5" t="n"/>
+      <c r="BX7" s="5" t="n"/>
+      <c r="BY7" s="6" t="n"/>
+      <c r="BZ7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="CA7" s="5" t="n"/>
+      <c r="CB7" s="5" t="n"/>
+      <c r="CC7" s="5" t="n"/>
+      <c r="CD7" s="5" t="n"/>
+      <c r="CE7" s="6" t="n"/>
+      <c r="CF7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="CG7" s="5" t="n"/>
+      <c r="CH7" s="5" t="n"/>
+      <c r="CI7" s="5" t="n"/>
+      <c r="CJ7" s="5" t="n"/>
+      <c r="CK7" s="6" t="n"/>
+      <c r="CL7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="CM7" s="5" t="n"/>
+      <c r="CN7" s="5" t="n"/>
+      <c r="CO7" s="5" t="n"/>
+      <c r="CP7" s="5" t="n"/>
+      <c r="CQ7" s="6" t="n"/>
+      <c r="CR7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="CS7" s="5" t="n"/>
+      <c r="CT7" s="5" t="n"/>
+      <c r="CU7" s="5" t="n"/>
+      <c r="CV7" s="5" t="n"/>
+      <c r="CW7" s="6" t="n"/>
+      <c r="CX7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="CY7" s="5" t="n"/>
+      <c r="CZ7" s="5" t="n"/>
+      <c r="DA7" s="5" t="n"/>
+      <c r="DB7" s="5" t="n"/>
+      <c r="DC7" s="6" t="n"/>
+      <c r="DD7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="DE7" s="5" t="n"/>
+      <c r="DF7" s="5" t="n"/>
+      <c r="DG7" s="5" t="n"/>
+      <c r="DH7" s="5" t="n"/>
+      <c r="DI7" s="6" t="n"/>
+      <c r="DJ7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="DK7" s="5" t="n"/>
+      <c r="DL7" s="5" t="n"/>
+      <c r="DM7" s="5" t="n"/>
+      <c r="DN7" s="5" t="n"/>
+      <c r="DO7" s="6" t="n"/>
+      <c r="DP7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="DQ7" s="5" t="n"/>
+      <c r="DR7" s="5" t="n"/>
+      <c r="DS7" s="5" t="n"/>
+      <c r="DT7" s="5" t="n"/>
+      <c r="DU7" s="6" t="n"/>
+      <c r="DV7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="DW7" s="5" t="n"/>
+      <c r="DX7" s="5" t="n"/>
+      <c r="DY7" s="5" t="n"/>
+      <c r="DZ7" s="5" t="n"/>
+      <c r="EA7" s="6" t="n"/>
+      <c r="EB7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="EC7" s="5" t="n"/>
+      <c r="ED7" s="5" t="n"/>
+      <c r="EE7" s="5" t="n"/>
+      <c r="EF7" s="5" t="n"/>
+      <c r="EG7" s="6" t="n"/>
+      <c r="EH7" s="35" t="inlineStr">
+        <is>
+          <t>Mã Concept</t>
+        </is>
+      </c>
+      <c r="EI7" s="5" t="n"/>
+      <c r="EJ7" s="5" t="n"/>
+      <c r="EK7" s="5" t="n"/>
+      <c r="EL7" s="5" t="n"/>
+      <c r="EM7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="F8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="W8" s="6" t="n"/>
+      <c r="X8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="Y8" s="6" t="n"/>
+      <c r="Z8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="AC8" s="6" t="n"/>
+      <c r="AD8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="AE8" s="6" t="n"/>
+      <c r="AF8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="AG8" s="6" t="n"/>
+      <c r="AH8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="AI8" s="6" t="n"/>
+      <c r="AJ8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="AK8" s="6" t="n"/>
+      <c r="AL8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="AM8" s="6" t="n"/>
+      <c r="AN8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="AO8" s="6" t="n"/>
+      <c r="AP8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="AQ8" s="6" t="n"/>
+      <c r="AR8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="AS8" s="6" t="n"/>
+      <c r="AT8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="AU8" s="6" t="n"/>
+      <c r="AV8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="AW8" s="6" t="n"/>
+      <c r="AX8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="AY8" s="6" t="n"/>
+      <c r="AZ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="BA8" s="6" t="n"/>
+      <c r="BB8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="BC8" s="6" t="n"/>
+      <c r="BD8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="BE8" s="6" t="n"/>
+      <c r="BF8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="BG8" s="6" t="n"/>
+      <c r="BH8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="BI8" s="6" t="n"/>
+      <c r="BJ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="BK8" s="6" t="n"/>
+      <c r="BL8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="BM8" s="6" t="n"/>
+      <c r="BN8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="BO8" s="6" t="n"/>
+      <c r="BP8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="BQ8" s="6" t="n"/>
+      <c r="BR8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="BS8" s="6" t="n"/>
+      <c r="BT8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="BU8" s="6" t="n"/>
+      <c r="BV8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="BW8" s="6" t="n"/>
+      <c r="BX8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="BY8" s="6" t="n"/>
+      <c r="BZ8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="CA8" s="6" t="n"/>
+      <c r="CB8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="CC8" s="6" t="n"/>
+      <c r="CD8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="CE8" s="6" t="n"/>
+      <c r="CF8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="CG8" s="6" t="n"/>
+      <c r="CH8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="CI8" s="6" t="n"/>
+      <c r="CJ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="CK8" s="6" t="n"/>
+      <c r="CL8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="CM8" s="6" t="n"/>
+      <c r="CN8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="CO8" s="6" t="n"/>
+      <c r="CP8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="CQ8" s="6" t="n"/>
+      <c r="CR8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="CS8" s="6" t="n"/>
+      <c r="CT8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="CU8" s="6" t="n"/>
+      <c r="CV8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="CW8" s="6" t="n"/>
+      <c r="CX8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="CY8" s="6" t="n"/>
+      <c r="CZ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="DA8" s="6" t="n"/>
+      <c r="DB8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="DC8" s="6" t="n"/>
+      <c r="DD8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="DE8" s="6" t="n"/>
+      <c r="DF8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="DG8" s="6" t="n"/>
+      <c r="DH8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="DI8" s="6" t="n"/>
+      <c r="DJ8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="DK8" s="6" t="n"/>
+      <c r="DL8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="DM8" s="6" t="n"/>
+      <c r="DN8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="DO8" s="6" t="n"/>
+      <c r="DP8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="DQ8" s="6" t="n"/>
+      <c r="DR8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="DS8" s="6" t="n"/>
+      <c r="DT8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="DU8" s="6" t="n"/>
+      <c r="DV8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="DW8" s="6" t="n"/>
+      <c r="DX8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="DY8" s="6" t="n"/>
+      <c r="DZ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="EA8" s="6" t="n"/>
+      <c r="EB8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="EC8" s="6" t="n"/>
+      <c r="ED8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="EE8" s="6" t="n"/>
+      <c r="EF8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="EG8" s="6" t="n"/>
+      <c r="EH8" s="36" t="inlineStr">
+        <is>
+          <t>Concept 1</t>
+        </is>
+      </c>
+      <c r="EI8" s="6" t="n"/>
+      <c r="EJ8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 2</t>
+        </is>
+      </c>
+      <c r="EK8" s="6" t="n"/>
+      <c r="EL8" s="37" t="inlineStr">
+        <is>
+          <t>Concept 3</t>
+        </is>
+      </c>
+      <c r="EM8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="F9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="W9" s="6" t="n"/>
+      <c r="X9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y9" s="6" t="n"/>
+      <c r="Z9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AC9" s="6" t="n"/>
+      <c r="AD9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AE9" s="6" t="n"/>
+      <c r="AF9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG9" s="6" t="n"/>
+      <c r="AH9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AI9" s="6" t="n"/>
+      <c r="AJ9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AK9" s="6" t="n"/>
+      <c r="AL9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AM9" s="6" t="n"/>
+      <c r="AN9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AO9" s="6" t="n"/>
+      <c r="AP9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AQ9" s="6" t="n"/>
+      <c r="AR9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AS9" s="6" t="n"/>
+      <c r="AT9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU9" s="6" t="n"/>
+      <c r="AV9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AW9" s="6" t="n"/>
+      <c r="AX9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AY9" s="6" t="n"/>
+      <c r="AZ9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BA9" s="6" t="n"/>
+      <c r="BB9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BC9" s="6" t="n"/>
+      <c r="BD9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BE9" s="6" t="n"/>
+      <c r="BF9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BG9" s="6" t="n"/>
+      <c r="BH9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BI9" s="6" t="n"/>
+      <c r="BJ9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BK9" s="6" t="n"/>
+      <c r="BL9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BM9" s="6" t="n"/>
+      <c r="BN9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BO9" s="6" t="n"/>
+      <c r="BP9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BQ9" s="6" t="n"/>
+      <c r="BR9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BS9" s="6" t="n"/>
+      <c r="BT9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BU9" s="6" t="n"/>
+      <c r="BV9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BW9" s="6" t="n"/>
+      <c r="BX9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BY9" s="6" t="n"/>
+      <c r="BZ9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CA9" s="6" t="n"/>
+      <c r="CB9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CC9" s="6" t="n"/>
+      <c r="CD9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CE9" s="6" t="n"/>
+      <c r="CF9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CG9" s="6" t="n"/>
+      <c r="CH9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CI9" s="6" t="n"/>
+      <c r="CJ9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CK9" s="6" t="n"/>
+      <c r="CL9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CM9" s="6" t="n"/>
+      <c r="CN9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CO9" s="6" t="n"/>
+      <c r="CP9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CQ9" s="6" t="n"/>
+      <c r="CR9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CS9" s="6" t="n"/>
+      <c r="CT9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CU9" s="6" t="n"/>
+      <c r="CV9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CW9" s="6" t="n"/>
+      <c r="CX9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CY9" s="6" t="n"/>
+      <c r="CZ9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DA9" s="6" t="n"/>
+      <c r="DB9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DC9" s="6" t="n"/>
+      <c r="DD9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DE9" s="6" t="n"/>
+      <c r="DF9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DG9" s="6" t="n"/>
+      <c r="DH9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DI9" s="6" t="n"/>
+      <c r="DJ9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DK9" s="6" t="n"/>
+      <c r="DL9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DM9" s="6" t="n"/>
+      <c r="DN9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DO9" s="6" t="n"/>
+      <c r="DP9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DQ9" s="6" t="n"/>
+      <c r="DR9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DS9" s="6" t="n"/>
+      <c r="DT9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DU9" s="6" t="n"/>
+      <c r="DV9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DW9" s="6" t="n"/>
+      <c r="DX9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="DY9" s="6" t="n"/>
+      <c r="DZ9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA9" s="6" t="n"/>
+      <c r="EB9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EC9" s="6" t="n"/>
+      <c r="ED9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE9" s="6" t="n"/>
+      <c r="EF9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EG9" s="6" t="n"/>
+      <c r="EH9" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EI9" s="6" t="n"/>
+      <c r="EJ9" s="39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EK9" s="6" t="n"/>
+      <c r="EL9" s="39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EM9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Bạn THÍCH hay KHÔNG THÍCH sản phẩm này?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F10" s="40" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr"/>
+      <c r="H10" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" s="13" t="inlineStr"/>
+      <c r="J10" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K10" s="13" t="inlineStr"/>
+      <c r="L10" s="40" t="n">
+        <v>76</v>
+      </c>
+      <c r="M10" s="13" t="inlineStr"/>
+      <c r="N10" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="O10" s="13" t="inlineStr"/>
+      <c r="P10" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="13" t="inlineStr"/>
+      <c r="R10" s="40" t="n">
+        <v>74</v>
+      </c>
+      <c r="S10" s="13" t="inlineStr"/>
+      <c r="T10" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="U10" s="13" t="inlineStr"/>
+      <c r="V10" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="W10" s="13" t="inlineStr"/>
+      <c r="X10" s="40" t="n">
+        <v>76</v>
+      </c>
+      <c r="Y10" s="13" t="inlineStr"/>
+      <c r="Z10" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA10" s="13" t="inlineStr"/>
+      <c r="AB10" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="13" t="inlineStr"/>
+      <c r="AD10" s="40" t="n">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="13" t="inlineStr"/>
+      <c r="AF10" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="13" t="inlineStr"/>
+      <c r="AH10" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="13" t="inlineStr"/>
+      <c r="AJ10" s="40" t="n">
+        <v>77</v>
+      </c>
+      <c r="AK10" s="13" t="inlineStr"/>
+      <c r="AL10" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="AM10" s="13" t="inlineStr"/>
+      <c r="AN10" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="AO10" s="13" t="inlineStr"/>
+      <c r="AP10" s="40" t="n">
+        <v>54</v>
+      </c>
+      <c r="AQ10" s="13" t="inlineStr"/>
+      <c r="AR10" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="AS10" s="13" t="inlineStr"/>
+      <c r="AT10" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="AU10" s="13" t="inlineStr"/>
+      <c r="AV10" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW10" s="13" t="inlineStr"/>
+      <c r="AX10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" s="13" t="inlineStr"/>
+      <c r="AZ10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA10" s="13" t="inlineStr"/>
+      <c r="BB10" s="40" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC10" s="13" t="inlineStr"/>
+      <c r="BD10" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="BE10" s="13" t="inlineStr"/>
+      <c r="BF10" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="BG10" s="13" t="inlineStr"/>
+      <c r="BH10" s="40" t="n">
+        <v>38</v>
+      </c>
+      <c r="BI10" s="13" t="inlineStr"/>
+      <c r="BJ10" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BK10" s="13" t="inlineStr"/>
+      <c r="BL10" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BM10" s="13" t="inlineStr"/>
+      <c r="BN10" s="40" t="n">
+        <v>37</v>
+      </c>
+      <c r="BO10" s="13" t="inlineStr"/>
+      <c r="BP10" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="BQ10" s="13" t="inlineStr"/>
+      <c r="BR10" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="BS10" s="13" t="inlineStr"/>
+      <c r="BT10" s="40" t="n">
+        <v>45</v>
+      </c>
+      <c r="BU10" s="13" t="inlineStr"/>
+      <c r="BV10" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BW10" s="13" t="inlineStr"/>
+      <c r="BX10" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BY10" s="13" t="inlineStr"/>
+      <c r="BZ10" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="CA10" s="13" t="inlineStr"/>
+      <c r="CB10" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="CC10" s="13" t="inlineStr"/>
+      <c r="CD10" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE10" s="13" t="inlineStr"/>
+      <c r="CF10" s="40" t="n">
+        <v>56</v>
+      </c>
+      <c r="CG10" s="13" t="inlineStr"/>
+      <c r="CH10" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="CI10" s="13" t="inlineStr"/>
+      <c r="CJ10" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="CK10" s="13" t="inlineStr"/>
+      <c r="CL10" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="CM10" s="13" t="inlineStr"/>
+      <c r="CN10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="CO10" s="13" t="inlineStr"/>
+      <c r="CP10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="CQ10" s="13" t="inlineStr"/>
+      <c r="CR10" s="40" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS10" s="13" t="inlineStr"/>
+      <c r="CT10" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="CU10" s="13" t="inlineStr"/>
+      <c r="CV10" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="CW10" s="13" t="inlineStr"/>
+      <c r="CX10" s="40" t="n">
+        <v>38</v>
+      </c>
+      <c r="CY10" s="13" t="inlineStr"/>
+      <c r="CZ10" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="DA10" s="13" t="inlineStr"/>
+      <c r="DB10" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="DC10" s="13" t="inlineStr"/>
+      <c r="DD10" s="40" t="n">
+        <v>37</v>
+      </c>
+      <c r="DE10" s="13" t="inlineStr"/>
+      <c r="DF10" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="DG10" s="13" t="inlineStr"/>
+      <c r="DH10" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="DI10" s="13" t="inlineStr"/>
+      <c r="DJ10" s="40" t="n">
+        <v>31</v>
+      </c>
+      <c r="DK10" s="13" t="inlineStr"/>
+      <c r="DL10" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="DM10" s="13" t="inlineStr"/>
+      <c r="DN10" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="DO10" s="13" t="inlineStr"/>
+      <c r="DP10" s="40" t="n">
+        <v>44</v>
+      </c>
+      <c r="DQ10" s="13" t="inlineStr"/>
+      <c r="DR10" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="DS10" s="13" t="inlineStr"/>
+      <c r="DT10" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="DU10" s="13" t="inlineStr"/>
+      <c r="DV10" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="DW10" s="13" t="inlineStr"/>
+      <c r="DX10" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="DY10" s="13" t="inlineStr"/>
+      <c r="DZ10" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="EA10" s="13" t="inlineStr"/>
+      <c r="EB10" s="40" t="n">
+        <v>35</v>
+      </c>
+      <c r="EC10" s="13" t="inlineStr"/>
+      <c r="ED10" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="EE10" s="13" t="inlineStr"/>
+      <c r="EF10" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="EG10" s="13" t="inlineStr"/>
+      <c r="EH10" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="EI10" s="13" t="inlineStr"/>
+      <c r="EJ10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="EK10" s="13" t="inlineStr"/>
+      <c r="EL10" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="EM10" s="13" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>1 - Hoàn toàn không thích</t>
+        </is>
+      </c>
+      <c r="F11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42" t="inlineStr"/>
+      <c r="H11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42" t="inlineStr"/>
+      <c r="J11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="42" t="inlineStr"/>
+      <c r="L11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="42" t="inlineStr"/>
+      <c r="N11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="42" t="inlineStr"/>
+      <c r="P11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42" t="inlineStr"/>
+      <c r="R11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="42" t="inlineStr"/>
+      <c r="T11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="42" t="inlineStr"/>
+      <c r="V11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="42" t="inlineStr"/>
+      <c r="X11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="42" t="inlineStr"/>
+      <c r="Z11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="42" t="inlineStr"/>
+      <c r="AB11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="42" t="inlineStr"/>
+      <c r="AD11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="42" t="inlineStr"/>
+      <c r="AF11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="42" t="inlineStr"/>
+      <c r="AH11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="42" t="inlineStr"/>
+      <c r="AJ11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="42" t="inlineStr"/>
+      <c r="AL11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="42" t="inlineStr"/>
+      <c r="AN11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="42" t="inlineStr"/>
+      <c r="AP11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="42" t="inlineStr"/>
+      <c r="AR11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="42" t="inlineStr"/>
+      <c r="AT11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="42" t="inlineStr"/>
+      <c r="AV11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="42" t="inlineStr"/>
+      <c r="AX11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="42" t="inlineStr"/>
+      <c r="AZ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="42" t="inlineStr"/>
+      <c r="BB11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="42" t="inlineStr"/>
+      <c r="BD11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="42" t="inlineStr"/>
+      <c r="BF11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="42" t="inlineStr"/>
+      <c r="BH11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="42" t="inlineStr"/>
+      <c r="BJ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="42" t="inlineStr"/>
+      <c r="BL11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="42" t="inlineStr"/>
+      <c r="BN11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="42" t="inlineStr"/>
+      <c r="BP11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="42" t="inlineStr"/>
+      <c r="BR11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="42" t="inlineStr"/>
+      <c r="BT11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="42" t="inlineStr"/>
+      <c r="BV11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="42" t="inlineStr"/>
+      <c r="BX11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="42" t="inlineStr"/>
+      <c r="BZ11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="42" t="inlineStr"/>
+      <c r="CB11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="42" t="inlineStr"/>
+      <c r="CD11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="42" t="inlineStr"/>
+      <c r="CF11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="42" t="inlineStr"/>
+      <c r="CH11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="42" t="inlineStr"/>
+      <c r="CJ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="42" t="inlineStr"/>
+      <c r="CL11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="42" t="inlineStr"/>
+      <c r="CN11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="42" t="inlineStr"/>
+      <c r="CP11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="42" t="inlineStr"/>
+      <c r="CR11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="42" t="inlineStr"/>
+      <c r="CT11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="42" t="inlineStr"/>
+      <c r="CV11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="42" t="inlineStr"/>
+      <c r="CX11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="42" t="inlineStr"/>
+      <c r="CZ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="42" t="inlineStr"/>
+      <c r="DB11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="42" t="inlineStr"/>
+      <c r="DD11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="42" t="inlineStr"/>
+      <c r="DF11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="42" t="inlineStr"/>
+      <c r="DH11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="42" t="inlineStr"/>
+      <c r="DJ11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="42" t="inlineStr"/>
+      <c r="DL11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="42" t="inlineStr"/>
+      <c r="DN11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="42" t="inlineStr"/>
+      <c r="DP11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="42" t="inlineStr"/>
+      <c r="DR11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="42" t="inlineStr"/>
+      <c r="DT11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="42" t="inlineStr"/>
+      <c r="DV11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="42" t="inlineStr"/>
+      <c r="DX11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="42" t="inlineStr"/>
+      <c r="DZ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="42" t="inlineStr"/>
+      <c r="EB11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="42" t="inlineStr"/>
+      <c r="ED11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="42" t="inlineStr"/>
+      <c r="EF11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="42" t="inlineStr"/>
+      <c r="EH11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="42" t="inlineStr"/>
+      <c r="EJ11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="42" t="inlineStr"/>
+      <c r="EL11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="42" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>2 - Không thích</t>
+        </is>
+      </c>
+      <c r="F12" s="41" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="G12" s="42" t="inlineStr"/>
+      <c r="H12" s="23" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I12" s="42" t="inlineStr"/>
+      <c r="J12" s="23" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K12" s="42" t="inlineStr"/>
+      <c r="L12" s="41" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="M12" s="42" t="inlineStr"/>
+      <c r="N12" s="23" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="O12" s="42" t="inlineStr"/>
+      <c r="P12" s="23" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="Q12" s="42" t="inlineStr"/>
+      <c r="R12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="42" t="inlineStr"/>
+      <c r="T12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="42" t="inlineStr"/>
+      <c r="V12" s="23" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="W12" s="42" t="inlineStr"/>
+      <c r="X12" s="41" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="Y12" s="42" t="inlineStr"/>
+      <c r="Z12" s="23" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="AA12" s="42" t="inlineStr"/>
+      <c r="AB12" s="23" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="AC12" s="42" t="inlineStr"/>
+      <c r="AD12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="42" t="inlineStr"/>
+      <c r="AF12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="42" t="inlineStr"/>
+      <c r="AH12" s="23" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="AI12" s="42" t="inlineStr"/>
+      <c r="AJ12" s="41" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AK12" s="42" t="inlineStr"/>
+      <c r="AL12" s="23" t="n">
+        <v>0.01298701298701299</v>
+      </c>
+      <c r="AM12" s="42" t="inlineStr"/>
+      <c r="AN12" s="23" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AO12" s="42" t="inlineStr"/>
+      <c r="AP12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="42" t="inlineStr"/>
+      <c r="AR12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="42" t="inlineStr"/>
+      <c r="AT12" s="23" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AU12" s="42" t="inlineStr"/>
+      <c r="AV12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="42" t="inlineStr"/>
+      <c r="AX12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="42" t="inlineStr"/>
+      <c r="AZ12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="42" t="inlineStr"/>
+      <c r="BB12" s="41" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="BC12" s="42" t="inlineStr"/>
+      <c r="BD12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="42" t="inlineStr"/>
+      <c r="BF12" s="23" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="BG12" s="42" t="inlineStr"/>
+      <c r="BH12" s="41" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="BI12" s="42" t="inlineStr"/>
+      <c r="BJ12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="42" t="inlineStr"/>
+      <c r="BL12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="42" t="inlineStr"/>
+      <c r="BN12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="42" t="inlineStr"/>
+      <c r="BP12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="42" t="inlineStr"/>
+      <c r="BR12" s="23" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="BS12" s="42" t="inlineStr"/>
+      <c r="BT12" s="41" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="BU12" s="42" t="inlineStr"/>
+      <c r="BV12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="42" t="inlineStr"/>
+      <c r="BX12" s="23" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="BY12" s="42" t="inlineStr"/>
+      <c r="BZ12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="42" t="inlineStr"/>
+      <c r="CB12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="42" t="inlineStr"/>
+      <c r="CD12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="42" t="inlineStr"/>
+      <c r="CF12" s="41" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="CG12" s="42" t="inlineStr"/>
+      <c r="CH12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="42" t="inlineStr"/>
+      <c r="CJ12" s="23" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="CK12" s="42" t="inlineStr"/>
+      <c r="CL12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="42" t="inlineStr"/>
+      <c r="CN12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="42" t="inlineStr"/>
+      <c r="CP12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="42" t="inlineStr"/>
+      <c r="CR12" s="41" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="CS12" s="42" t="inlineStr"/>
+      <c r="CT12" s="23" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="CU12" s="42" t="inlineStr"/>
+      <c r="CV12" s="23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CW12" s="42" t="inlineStr"/>
+      <c r="CX12" s="41" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="CY12" s="42" t="inlineStr"/>
+      <c r="CZ12" s="23" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="DA12" s="42" t="inlineStr"/>
+      <c r="DB12" s="23" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="DC12" s="42" t="inlineStr"/>
+      <c r="DD12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="42" t="inlineStr"/>
+      <c r="DF12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="42" t="inlineStr"/>
+      <c r="DH12" s="23" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="DI12" s="42" t="inlineStr"/>
+      <c r="DJ12" s="41" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DK12" s="42" t="inlineStr"/>
+      <c r="DL12" s="23" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DM12" s="42" t="inlineStr"/>
+      <c r="DN12" s="23" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DO12" s="42" t="inlineStr"/>
+      <c r="DP12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="42" t="inlineStr"/>
+      <c r="DR12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="42" t="inlineStr"/>
+      <c r="DT12" s="23" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="DU12" s="42" t="inlineStr"/>
+      <c r="DV12" s="41" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DW12" s="42" t="inlineStr"/>
+      <c r="DX12" s="23" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DY12" s="42" t="inlineStr"/>
+      <c r="DZ12" s="23" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="EA12" s="42" t="inlineStr"/>
+      <c r="EB12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="42" t="inlineStr"/>
+      <c r="ED12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="42" t="inlineStr"/>
+      <c r="EF12" s="23" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="EG12" s="42" t="inlineStr"/>
+      <c r="EH12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="42" t="inlineStr"/>
+      <c r="EJ12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="42" t="inlineStr"/>
+      <c r="EL12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="42" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>3 - Không thích cũng không ghét</t>
+        </is>
+      </c>
+      <c r="F13" s="41" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G13" s="42" t="inlineStr"/>
+      <c r="H13" s="23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="42" t="inlineStr"/>
+      <c r="J13" s="23" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K13" s="42" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="L13" s="41" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="M13" s="42" t="inlineStr"/>
+      <c r="N13" s="23" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="O13" s="42" t="inlineStr"/>
+      <c r="P13" s="23" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="Q13" s="42" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="R13" s="41" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="S13" s="42" t="inlineStr"/>
+      <c r="T13" s="23" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="U13" s="42" t="inlineStr"/>
+      <c r="V13" s="23" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="W13" s="42" t="inlineStr"/>
+      <c r="X13" s="41" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+      <c r="Y13" s="42" t="inlineStr"/>
+      <c r="Z13" s="23" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="AA13" s="42" t="inlineStr"/>
+      <c r="AB13" s="23" t="n">
+        <v>0.1710526315789474</v>
+      </c>
+      <c r="AC13" s="42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD13" s="41" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="AE13" s="42" t="inlineStr"/>
+      <c r="AF13" s="23" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="AG13" s="42" t="inlineStr"/>
+      <c r="AH13" s="23" t="n">
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="AI13" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="AJ13" s="41" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="AK13" s="42" t="inlineStr"/>
+      <c r="AL13" s="23" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AM13" s="42" t="inlineStr"/>
+      <c r="AN13" s="23" t="n">
+        <v>0.1298701298701299</v>
+      </c>
+      <c r="AO13" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="AP13" s="41" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AQ13" s="42" t="inlineStr"/>
+      <c r="AR13" s="23" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AS13" s="42" t="inlineStr"/>
+      <c r="AT13" s="23" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="AU13" s="42" t="inlineStr"/>
+      <c r="AV13" s="41" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AW13" s="42" t="inlineStr"/>
+      <c r="AX13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="42" t="inlineStr"/>
+      <c r="AZ13" s="23" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="BA13" s="42" t="inlineStr"/>
+      <c r="BB13" s="41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC13" s="42" t="inlineStr"/>
+      <c r="BD13" s="23" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BE13" s="42" t="inlineStr"/>
+      <c r="BF13" s="23" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="BG13" s="42" t="inlineStr"/>
+      <c r="BH13" s="41" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="BI13" s="42" t="inlineStr"/>
+      <c r="BJ13" s="23" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BK13" s="42" t="inlineStr"/>
+      <c r="BL13" s="23" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BM13" s="42" t="inlineStr"/>
+      <c r="BN13" s="41" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="BO13" s="42" t="inlineStr"/>
+      <c r="BP13" s="23" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="BQ13" s="42" t="inlineStr"/>
+      <c r="BR13" s="23" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="BS13" s="42" t="inlineStr"/>
+      <c r="BT13" s="41" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="BU13" s="42" t="inlineStr"/>
+      <c r="BV13" s="23" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="BW13" s="42" t="inlineStr"/>
+      <c r="BX13" s="23" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="BY13" s="42" t="inlineStr"/>
+      <c r="BZ13" s="41" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="CA13" s="42" t="inlineStr"/>
+      <c r="CB13" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CC13" s="42" t="inlineStr"/>
+      <c r="CD13" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CE13" s="42" t="inlineStr"/>
+      <c r="CF13" s="41" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="CG13" s="42" t="inlineStr"/>
+      <c r="CH13" s="23" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="CI13" s="42" t="inlineStr"/>
+      <c r="CJ13" s="23" t="n">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="CK13" s="42" t="inlineStr"/>
+      <c r="CL13" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="42" t="inlineStr"/>
+      <c r="CN13" s="23" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CO13" s="42" t="inlineStr"/>
+      <c r="CP13" s="23" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CQ13" s="42" t="inlineStr"/>
+      <c r="CR13" s="41" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="CS13" s="42" t="inlineStr"/>
+      <c r="CT13" s="23" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="CU13" s="42" t="inlineStr"/>
+      <c r="CV13" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CW13" s="42" t="inlineStr">
+        <is>
+          <t>aB</t>
+        </is>
+      </c>
+      <c r="CX13" s="41" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="CY13" s="42" t="inlineStr"/>
+      <c r="CZ13" s="23" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="DA13" s="42" t="inlineStr"/>
+      <c r="DB13" s="23" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="DC13" s="42" t="inlineStr">
+        <is>
+          <t>aB</t>
+        </is>
+      </c>
+      <c r="DD13" s="41" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="DE13" s="42" t="inlineStr"/>
+      <c r="DF13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="42" t="inlineStr"/>
+      <c r="DH13" s="23" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="DI13" s="42" t="inlineStr"/>
+      <c r="DJ13" s="41" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="DK13" s="42" t="inlineStr"/>
+      <c r="DL13" s="23" t="n">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="DM13" s="42" t="inlineStr"/>
+      <c r="DN13" s="23" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="DO13" s="42" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="DP13" s="41" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="DQ13" s="42" t="inlineStr"/>
+      <c r="DR13" s="23" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="DS13" s="42" t="inlineStr"/>
+      <c r="DT13" s="23" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="DU13" s="42" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="DV13" s="41" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DW13" s="42" t="inlineStr"/>
+      <c r="DX13" s="23" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="DY13" s="42" t="inlineStr"/>
+      <c r="DZ13" s="23" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="EA13" s="42" t="inlineStr"/>
+      <c r="EB13" s="41" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="EC13" s="42" t="inlineStr"/>
+      <c r="ED13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="42" t="inlineStr"/>
+      <c r="EF13" s="23" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="EG13" s="42" t="inlineStr"/>
+      <c r="EH13" s="41" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="EI13" s="42" t="inlineStr"/>
+      <c r="EJ13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="42" t="inlineStr"/>
+      <c r="EL13" s="23" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="EM13" s="42" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>4 - Thích</t>
+        </is>
+      </c>
+      <c r="F14" s="41" t="n">
+        <v>0.5266666666666666</v>
+      </c>
+      <c r="G14" s="42" t="inlineStr"/>
+      <c r="H14" s="23" t="n">
+        <v>0.7133333333333334</v>
+      </c>
+      <c r="I14" s="42" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="J14" s="23" t="n">
+        <v>0.5866666666666667</v>
+      </c>
+      <c r="K14" s="42" t="inlineStr"/>
+      <c r="L14" s="41" t="n">
+        <v>0.4868421052631579</v>
+      </c>
+      <c r="M14" s="42" t="inlineStr"/>
+      <c r="N14" s="23" t="n">
+        <v>0.6710526315789473</v>
+      </c>
+      <c r="O14" s="42" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="P14" s="23" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="Q14" s="42" t="inlineStr"/>
+      <c r="R14" s="41" t="n">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="S14" s="42" t="inlineStr"/>
+      <c r="T14" s="23" t="n">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="U14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="V14" s="23" t="n">
+        <v>0.6621621621621622</v>
+      </c>
+      <c r="W14" s="42" t="inlineStr"/>
+      <c r="X14" s="41" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="Y14" s="42" t="inlineStr"/>
+      <c r="Z14" s="23" t="n">
+        <v>0.6447368421052632</v>
+      </c>
+      <c r="AA14" s="42" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="AB14" s="23" t="n">
+        <v>0.4868421052631579</v>
+      </c>
+      <c r="AC14" s="42" t="inlineStr"/>
+      <c r="AD14" s="41" t="n">
+        <v>0.581081081081081</v>
+      </c>
+      <c r="AE14" s="42" t="inlineStr"/>
+      <c r="AF14" s="23" t="n">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="AG14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AH14" s="23" t="n">
+        <v>0.6891891891891891</v>
+      </c>
+      <c r="AI14" s="42" t="inlineStr"/>
+      <c r="AJ14" s="41" t="n">
+        <v>0.5584415584415584</v>
+      </c>
+      <c r="AK14" s="42" t="inlineStr"/>
+      <c r="AL14" s="23" t="n">
+        <v>0.6623376623376623</v>
+      </c>
+      <c r="AM14" s="42" t="inlineStr"/>
+      <c r="AN14" s="23" t="n">
+        <v>0.5324675324675324</v>
+      </c>
+      <c r="AO14" s="42" t="inlineStr"/>
+      <c r="AP14" s="41" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="AQ14" s="42" t="inlineStr"/>
+      <c r="AR14" s="23" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+      <c r="AS14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT14" s="23" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="AU14" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="AV14" s="41" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="AW14" s="42" t="inlineStr"/>
+      <c r="AX14" s="23" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="AY14" s="42" t="inlineStr"/>
+      <c r="AZ14" s="23" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="BA14" s="42" t="inlineStr"/>
+      <c r="BB14" s="41" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BC14" s="42" t="inlineStr"/>
+      <c r="BD14" s="23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE14" s="42" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="BF14" s="23" t="n">
+        <v>0.5733333333333334</v>
+      </c>
+      <c r="BG14" s="42" t="inlineStr"/>
+      <c r="BH14" s="41" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BI14" s="42" t="inlineStr"/>
+      <c r="BJ14" s="23" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="BK14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BL14" s="23" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="BM14" s="42" t="inlineStr"/>
+      <c r="BN14" s="41" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="BO14" s="42" t="inlineStr"/>
+      <c r="BP14" s="23" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="BQ14" s="42" t="inlineStr"/>
+      <c r="BR14" s="23" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BS14" s="42" t="inlineStr"/>
+      <c r="BT14" s="41" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BU14" s="42" t="inlineStr"/>
+      <c r="BV14" s="23" t="n">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="BW14" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="BX14" s="23" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BY14" s="42" t="inlineStr"/>
+      <c r="BZ14" s="41" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="CA14" s="42" t="inlineStr"/>
+      <c r="CB14" s="23" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CC14" s="42" t="inlineStr"/>
+      <c r="CD14" s="23" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="CE14" s="42" t="inlineStr"/>
+      <c r="CF14" s="41" t="n">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="CG14" s="42" t="inlineStr"/>
+      <c r="CH14" s="23" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CI14" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="CJ14" s="23" t="n">
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="CK14" s="42" t="inlineStr"/>
+      <c r="CL14" s="41" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="CM14" s="42" t="inlineStr"/>
+      <c r="CN14" s="23" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="CO14" s="42" t="inlineStr"/>
+      <c r="CP14" s="23" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CQ14" s="42" t="inlineStr"/>
+      <c r="CR14" s="41" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CS14" s="42" t="inlineStr"/>
+      <c r="CT14" s="23" t="n">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="CU14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CV14" s="23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CW14" s="42" t="inlineStr"/>
+      <c r="CX14" s="41" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="CY14" s="42" t="inlineStr"/>
+      <c r="CZ14" s="23" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="DA14" s="42" t="inlineStr"/>
+      <c r="DB14" s="23" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="DC14" s="42" t="inlineStr"/>
+      <c r="DD14" s="41" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="DE14" s="42" t="inlineStr"/>
+      <c r="DF14" s="23" t="n">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="DG14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DH14" s="23" t="n">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="DI14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ14" s="41" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="DK14" s="42" t="inlineStr"/>
+      <c r="DL14" s="23" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="DM14" s="42" t="inlineStr"/>
+      <c r="DN14" s="23" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="DO14" s="42" t="inlineStr"/>
+      <c r="DP14" s="41" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="DQ14" s="42" t="inlineStr"/>
+      <c r="DR14" s="23" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="DS14" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="DT14" s="23" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="DU14" s="42" t="inlineStr"/>
+      <c r="DV14" s="41" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DW14" s="42" t="inlineStr"/>
+      <c r="DX14" s="23" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="DY14" s="42" t="inlineStr"/>
+      <c r="DZ14" s="23" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="EA14" s="42" t="inlineStr"/>
+      <c r="EB14" s="41" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="EC14" s="42" t="inlineStr"/>
+      <c r="ED14" s="23" t="n">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="EE14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EF14" s="23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="EG14" s="42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EH14" s="41" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="EI14" s="42" t="inlineStr"/>
+      <c r="EJ14" s="23" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="EK14" s="42" t="inlineStr"/>
+      <c r="EL14" s="23" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="EM14" s="42" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>5 - Rất thích</t>
+        </is>
+      </c>
+      <c r="F15" s="41" t="n">
+        <v>0.3933333333333333</v>
+      </c>
+      <c r="G15" s="42" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="42" t="inlineStr"/>
+      <c r="J15" s="23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K15" s="42" t="inlineStr"/>
+      <c r="L15" s="41" t="n">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="M15" s="42" t="inlineStr">
+        <is>
+          <t>Bc</t>
+        </is>
+      </c>
+      <c r="N15" s="23" t="n">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="O15" s="42" t="inlineStr"/>
+      <c r="P15" s="23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="42" t="inlineStr"/>
+      <c r="R15" s="41" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="S15" s="42" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="T15" s="23" t="n">
+        <v>0.2027027027027027</v>
+      </c>
+      <c r="U15" s="42" t="inlineStr"/>
+      <c r="V15" s="23" t="n">
+        <v>0.2297297297297297</v>
+      </c>
+      <c r="W15" s="42" t="inlineStr"/>
+      <c r="X15" s="41" t="n">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="Y15" s="42" t="inlineStr"/>
+      <c r="Z15" s="23" t="n">
+        <v>0.2763157894736842</v>
+      </c>
+      <c r="AA15" s="42" t="inlineStr"/>
+      <c r="AB15" s="23" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AC15" s="42" t="inlineStr"/>
+      <c r="AD15" s="41" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="AE15" s="42" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="AF15" s="23" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AG15" s="42" t="inlineStr"/>
+      <c r="AH15" s="23" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AI15" s="42" t="inlineStr"/>
+      <c r="AJ15" s="41" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AK15" s="42" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AL15" s="23" t="n">
+        <v>0.2337662337662338</v>
+      </c>
+      <c r="AM15" s="42" t="inlineStr"/>
+      <c r="AN15" s="23" t="n">
+        <v>0.3116883116883117</v>
+      </c>
+      <c r="AO15" s="42" t="inlineStr"/>
+      <c r="AP15" s="41" t="n">
+        <v>0.4259259259259259</v>
+      </c>
+      <c r="AQ15" s="42" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="AR15" s="23" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AS15" s="42" t="inlineStr"/>
+      <c r="AT15" s="23" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AU15" s="42" t="inlineStr"/>
+      <c r="AV15" s="41" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="AW15" s="42" t="inlineStr"/>
+      <c r="AX15" s="23" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AY15" s="42" t="inlineStr"/>
+      <c r="AZ15" s="23" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="BA15" s="42" t="inlineStr"/>
+      <c r="BB15" s="41" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="BC15" s="42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BD15" s="23" t="n">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="BE15" s="42" t="inlineStr"/>
+      <c r="BF15" s="23" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BG15" s="42" t="inlineStr"/>
+      <c r="BH15" s="41" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="BI15" s="42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BJ15" s="23" t="n">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="BK15" s="42" t="inlineStr"/>
+      <c r="BL15" s="23" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="BM15" s="42" t="inlineStr"/>
+      <c r="BN15" s="41" t="n">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="BO15" s="42" t="inlineStr"/>
+      <c r="BP15" s="23" t="n">
+        <v>0.2432432432432433</v>
+      </c>
+      <c r="BQ15" s="42" t="inlineStr"/>
+      <c r="BR15" s="23" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="BS15" s="42" t="inlineStr"/>
+      <c r="BT15" s="41" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="BU15" s="42" t="inlineStr"/>
+      <c r="BV15" s="23" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BW15" s="42" t="inlineStr"/>
+      <c r="BX15" s="23" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="BY15" s="42" t="inlineStr"/>
+      <c r="BZ15" s="41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CA15" s="42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CB15" s="23" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="CC15" s="42" t="inlineStr"/>
+      <c r="CD15" s="23" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CE15" s="42" t="inlineStr"/>
+      <c r="CF15" s="41" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CG15" s="42" t="inlineStr"/>
+      <c r="CH15" s="23" t="n">
+        <v>0.2321428571428572</v>
+      </c>
+      <c r="CI15" s="42" t="inlineStr"/>
+      <c r="CJ15" s="23" t="n">
+        <v>0.3035714285714285</v>
+      </c>
+      <c r="CK15" s="42" t="inlineStr"/>
+      <c r="CL15" s="41" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CM15" s="42" t="inlineStr"/>
+      <c r="CN15" s="23" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="CO15" s="42" t="inlineStr"/>
+      <c r="CP15" s="23" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="CQ15" s="42" t="inlineStr"/>
+      <c r="CR15" s="41" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="CS15" s="42" t="inlineStr">
+        <is>
+          <t>bC</t>
+        </is>
+      </c>
+      <c r="CT15" s="23" t="n">
+        <v>0.2266666666666667</v>
+      </c>
+      <c r="CU15" s="42" t="inlineStr"/>
+      <c r="CV15" s="23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CW15" s="42" t="inlineStr"/>
+      <c r="CX15" s="41" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="CY15" s="42" t="inlineStr"/>
+      <c r="CZ15" s="23" t="n">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="DA15" s="42" t="inlineStr"/>
+      <c r="DB15" s="23" t="n">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="DC15" s="42" t="inlineStr"/>
+      <c r="DD15" s="41" t="n">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="DE15" s="42" t="inlineStr">
+        <is>
+          <t>bC</t>
+        </is>
+      </c>
+      <c r="DF15" s="23" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="DG15" s="42" t="inlineStr"/>
+      <c r="DH15" s="23" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="DI15" s="42" t="inlineStr"/>
+      <c r="DJ15" s="41" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="DK15" s="42" t="inlineStr"/>
+      <c r="DL15" s="23" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="DM15" s="42" t="inlineStr"/>
+      <c r="DN15" s="23" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="DO15" s="42" t="inlineStr"/>
+      <c r="DP15" s="41" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="DQ15" s="42" t="inlineStr">
+        <is>
+          <t>bC</t>
+        </is>
+      </c>
+      <c r="DR15" s="23" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="DS15" s="42" t="inlineStr"/>
+      <c r="DT15" s="23" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="DU15" s="42" t="inlineStr"/>
+      <c r="DV15" s="41" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="DW15" s="42" t="inlineStr"/>
+      <c r="DX15" s="23" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="DY15" s="42" t="inlineStr"/>
+      <c r="DZ15" s="23" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="EA15" s="42" t="inlineStr"/>
+      <c r="EB15" s="41" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="EC15" s="42" t="inlineStr">
+        <is>
+          <t>bC</t>
+        </is>
+      </c>
+      <c r="ED15" s="23" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="EE15" s="42" t="inlineStr"/>
+      <c r="EF15" s="23" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="EG15" s="42" t="inlineStr"/>
+      <c r="EH15" s="41" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="EI15" s="42" t="inlineStr"/>
+      <c r="EJ15" s="23" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="EK15" s="42" t="inlineStr"/>
+      <c r="EL15" s="23" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="EM15" s="42" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>900001</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="F16" s="43" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H16" s="28" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J16" s="28" t="n">
+        <v>0.8266666666666667</v>
+      </c>
+      <c r="K16" s="42" t="inlineStr"/>
+      <c r="L16" s="43" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="M16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N16" s="28" t="n">
+        <v>0.9078947368421053</v>
+      </c>
+      <c r="O16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P16" s="28" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="Q16" s="42" t="inlineStr"/>
+      <c r="R16" s="43" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="S16" s="42" t="inlineStr"/>
+      <c r="T16" s="28" t="n">
+        <v>0.9594594594594594</v>
+      </c>
+      <c r="U16" s="42" t="inlineStr"/>
+      <c r="V16" s="28" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="W16" s="42" t="inlineStr"/>
+      <c r="X16" s="43" t="n">
+        <v>0.881578947368421</v>
+      </c>
+      <c r="Y16" s="42" t="inlineStr"/>
+      <c r="Z16" s="28" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="AA16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AB16" s="28" t="n">
+        <v>0.8026315789473685</v>
+      </c>
+      <c r="AC16" s="42" t="inlineStr"/>
+      <c r="AD16" s="43" t="n">
+        <v>0.9594594594594594</v>
+      </c>
+      <c r="AE16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AF16" s="28" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="AG16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AH16" s="28" t="n">
+        <v>0.8513513513513513</v>
+      </c>
+      <c r="AI16" s="42" t="inlineStr"/>
+      <c r="AJ16" s="43" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+      <c r="AK16" s="42" t="inlineStr"/>
+      <c r="AL16" s="28" t="n">
+        <v>0.8961038961038961</v>
+      </c>
+      <c r="AM16" s="42" t="inlineStr"/>
+      <c r="AN16" s="28" t="n">
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="AO16" s="42" t="inlineStr"/>
+      <c r="AP16" s="43" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="AQ16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AR16" s="28" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="AS16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AT16" s="28" t="n">
+        <v>0.8703703703703703</v>
+      </c>
+      <c r="AU16" s="42" t="inlineStr"/>
+      <c r="AV16" s="43" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="AW16" s="42" t="inlineStr"/>
+      <c r="AX16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="42" t="inlineStr"/>
+      <c r="AZ16" s="28" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="BA16" s="42" t="inlineStr"/>
+      <c r="BB16" s="43" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="BC16" s="42" t="inlineStr"/>
+      <c r="BD16" s="28" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="BE16" s="42" t="inlineStr"/>
+      <c r="BF16" s="28" t="n">
+        <v>0.8933333333333333</v>
+      </c>
+      <c r="BG16" s="42" t="inlineStr"/>
+      <c r="BH16" s="43" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="BI16" s="42" t="inlineStr"/>
+      <c r="BJ16" s="28" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="BK16" s="42" t="inlineStr"/>
+      <c r="BL16" s="28" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="BM16" s="42" t="inlineStr"/>
+      <c r="BN16" s="43" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="BO16" s="42" t="inlineStr"/>
+      <c r="BP16" s="28" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="BQ16" s="42" t="inlineStr"/>
+      <c r="BR16" s="28" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="BS16" s="42" t="inlineStr"/>
+      <c r="BT16" s="43" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="BU16" s="42" t="inlineStr"/>
+      <c r="BV16" s="28" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="BW16" s="42" t="inlineStr"/>
+      <c r="BX16" s="28" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="BY16" s="42" t="inlineStr"/>
+      <c r="BZ16" s="43" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="CA16" s="42" t="inlineStr"/>
+      <c r="CB16" s="28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CC16" s="42" t="inlineStr"/>
+      <c r="CD16" s="28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CE16" s="42" t="inlineStr"/>
+      <c r="CF16" s="43" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="CG16" s="42" t="inlineStr"/>
+      <c r="CH16" s="28" t="n">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="CI16" s="42" t="inlineStr"/>
+      <c r="CJ16" s="28" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="CK16" s="42" t="inlineStr"/>
+      <c r="CL16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM16" s="42" t="inlineStr"/>
+      <c r="CN16" s="28" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="CO16" s="42" t="inlineStr"/>
+      <c r="CP16" s="28" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="CQ16" s="42" t="inlineStr"/>
+      <c r="CR16" s="43" t="n">
+        <v>0.8933333333333333</v>
+      </c>
+      <c r="CS16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CT16" s="28" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="CU16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CV16" s="28" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CW16" s="42" t="inlineStr"/>
+      <c r="CX16" s="43" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="CY16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CZ16" s="28" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="DA16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DB16" s="28" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="DC16" s="42" t="inlineStr"/>
+      <c r="DD16" s="43" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="DE16" s="42" t="inlineStr"/>
+      <c r="DF16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DH16" s="28" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="DI16" s="42" t="inlineStr"/>
+      <c r="DJ16" s="43" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="DK16" s="42" t="inlineStr"/>
+      <c r="DL16" s="28" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="DM16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="DN16" s="28" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="DO16" s="42" t="inlineStr"/>
+      <c r="DP16" s="43" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="DQ16" s="42" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="DR16" s="28" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="DS16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DT16" s="28" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="DU16" s="42" t="inlineStr"/>
+      <c r="DV16" s="43" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="DW16" s="42" t="inlineStr"/>
+      <c r="DX16" s="28" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="DY16" s="42" t="inlineStr"/>
+      <c r="DZ16" s="28" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="EA16" s="42" t="inlineStr"/>
+      <c r="EB16" s="43" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="EC16" s="42" t="inlineStr"/>
+      <c r="ED16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE16" s="42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EF16" s="28" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="EG16" s="42" t="inlineStr"/>
+      <c r="EH16" s="43" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="EI16" s="42" t="inlineStr"/>
+      <c r="EJ16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" s="42" t="inlineStr"/>
+      <c r="EL16" s="28" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="EM16" s="42" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>900002</t>
+        </is>
+      </c>
+      <c r="E17" s="27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F17" s="43" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G17" s="42" t="inlineStr"/>
+      <c r="H17" s="28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="42" t="inlineStr"/>
+      <c r="J17" s="28" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K17" s="42" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="L17" s="43" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="M17" s="42" t="inlineStr"/>
+      <c r="N17" s="28" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="O17" s="42" t="inlineStr"/>
+      <c r="P17" s="28" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="Q17" s="42" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="R17" s="43" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="S17" s="42" t="inlineStr"/>
+      <c r="T17" s="28" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="U17" s="42" t="inlineStr"/>
+      <c r="V17" s="28" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="W17" s="42" t="inlineStr"/>
+      <c r="X17" s="43" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+      <c r="Y17" s="42" t="inlineStr"/>
+      <c r="Z17" s="28" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="AA17" s="42" t="inlineStr"/>
+      <c r="AB17" s="28" t="n">
+        <v>0.1710526315789474</v>
+      </c>
+      <c r="AC17" s="42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD17" s="43" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="AE17" s="42" t="inlineStr"/>
+      <c r="AF17" s="28" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="AG17" s="42" t="inlineStr"/>
+      <c r="AH17" s="28" t="n">
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="AI17" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="AJ17" s="43" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="AK17" s="42" t="inlineStr"/>
+      <c r="AL17" s="28" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AM17" s="42" t="inlineStr"/>
+      <c r="AN17" s="28" t="n">
+        <v>0.1298701298701299</v>
+      </c>
+      <c r="AO17" s="42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="AP17" s="43" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AQ17" s="42" t="inlineStr"/>
+      <c r="AR17" s="28" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AS17" s="42" t="inlineStr"/>
+      <c r="AT17" s="28" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="AU17" s="42" t="inlineStr"/>
+      <c r="AV17" s="43" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AW17" s="42" t="inlineStr"/>
+      <c r="AX17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="42" t="inlineStr"/>
+      <c r="AZ17" s="28" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="BA17" s="42" t="inlineStr"/>
+      <c r="BB17" s="43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC17" s="42" t="inlineStr"/>
+      <c r="BD17" s="28" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BE17" s="42" t="inlineStr"/>
+      <c r="BF17" s="28" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="BG17" s="42" t="inlineStr"/>
+      <c r="BH17" s="43" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="BI17" s="42" t="inlineStr"/>
+      <c r="BJ17" s="28" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BK17" s="42" t="inlineStr"/>
+      <c r="BL17" s="28" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BM17" s="42" t="inlineStr"/>
+      <c r="BN17" s="43" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="BO17" s="42" t="inlineStr"/>
+      <c r="BP17" s="28" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="BQ17" s="42" t="inlineStr"/>
+      <c r="BR17" s="28" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="BS17" s="42" t="inlineStr"/>
+      <c r="BT17" s="43" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="BU17" s="42" t="inlineStr"/>
+      <c r="BV17" s="28" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="BW17" s="42" t="inlineStr"/>
+      <c r="BX17" s="28" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="BY17" s="42" t="inlineStr"/>
+      <c r="BZ17" s="43" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="CA17" s="42" t="inlineStr"/>
+      <c r="CB17" s="28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CC17" s="42" t="inlineStr"/>
+      <c r="CD17" s="28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CE17" s="42" t="inlineStr"/>
+      <c r="CF17" s="43" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="CG17" s="42" t="inlineStr"/>
+      <c r="CH17" s="28" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="CI17" s="42" t="inlineStr"/>
+      <c r="CJ17" s="28" t="n">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="CK17" s="42" t="inlineStr"/>
+      <c r="CL17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="42" t="inlineStr"/>
+      <c r="CN17" s="28" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CO17" s="42" t="inlineStr"/>
+      <c r="CP17" s="28" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CQ17" s="42" t="inlineStr"/>
+      <c r="CR17" s="43" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="CS17" s="42" t="inlineStr"/>
+      <c r="CT17" s="28" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="CU17" s="42" t="inlineStr"/>
+      <c r="CV17" s="28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CW17" s="42" t="inlineStr">
+        <is>
+          <t>aB</t>
+        </is>
+      </c>
+      <c r="CX17" s="43" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="CY17" s="42" t="inlineStr"/>
+      <c r="CZ17" s="28" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="DA17" s="42" t="inlineStr"/>
+      <c r="DB17" s="28" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="DC17" s="42" t="inlineStr">
+        <is>
+          <t>aB</t>
+        </is>
+      </c>
+      <c r="DD17" s="43" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="DE17" s="42" t="inlineStr"/>
+      <c r="DF17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="42" t="inlineStr"/>
+      <c r="DH17" s="28" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="DI17" s="42" t="inlineStr"/>
+      <c r="DJ17" s="43" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="DK17" s="42" t="inlineStr"/>
+      <c r="DL17" s="28" t="n">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="DM17" s="42" t="inlineStr"/>
+      <c r="DN17" s="28" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="DO17" s="42" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="DP17" s="43" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="DQ17" s="42" t="inlineStr"/>
+      <c r="DR17" s="28" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="DS17" s="42" t="inlineStr"/>
+      <c r="DT17" s="28" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="DU17" s="42" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="DV17" s="43" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DW17" s="42" t="inlineStr"/>
+      <c r="DX17" s="28" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="DY17" s="42" t="inlineStr"/>
+      <c r="DZ17" s="28" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="EA17" s="42" t="inlineStr"/>
+      <c r="EB17" s="43" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="EC17" s="42" t="inlineStr"/>
+      <c r="ED17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" s="42" t="inlineStr"/>
+      <c r="EF17" s="28" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="EG17" s="42" t="inlineStr"/>
+      <c r="EH17" s="43" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="EI17" s="42" t="inlineStr"/>
+      <c r="EJ17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK17" s="42" t="inlineStr"/>
+      <c r="EL17" s="28" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="EM17" s="42" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="F18" s="43" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="G18" s="42" t="inlineStr"/>
+      <c r="H18" s="28" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I18" s="42" t="inlineStr"/>
+      <c r="J18" s="28" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K18" s="42" t="inlineStr"/>
+      <c r="L18" s="43" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="M18" s="42" t="inlineStr"/>
+      <c r="N18" s="28" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="O18" s="42" t="inlineStr"/>
+      <c r="P18" s="28" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="Q18" s="42" t="inlineStr"/>
+      <c r="R18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="42" t="inlineStr"/>
+      <c r="T18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="42" t="inlineStr"/>
+      <c r="V18" s="28" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="W18" s="42" t="inlineStr"/>
+      <c r="X18" s="43" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="Y18" s="42" t="inlineStr"/>
+      <c r="Z18" s="28" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="AA18" s="42" t="inlineStr"/>
+      <c r="AB18" s="28" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="AC18" s="42" t="inlineStr"/>
+      <c r="AD18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="42" t="inlineStr"/>
+      <c r="AF18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="42" t="inlineStr"/>
+      <c r="AH18" s="28" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="AI18" s="42" t="inlineStr"/>
+      <c r="AJ18" s="43" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AK18" s="42" t="inlineStr"/>
+      <c r="AL18" s="28" t="n">
+        <v>0.01298701298701299</v>
+      </c>
+      <c r="AM18" s="42" t="inlineStr"/>
+      <c r="AN18" s="28" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AO18" s="42" t="inlineStr"/>
+      <c r="AP18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="42" t="inlineStr"/>
+      <c r="AR18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="42" t="inlineStr"/>
+      <c r="AT18" s="28" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AU18" s="42" t="inlineStr"/>
+      <c r="AV18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="42" t="inlineStr"/>
+      <c r="AX18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="42" t="inlineStr"/>
+      <c r="AZ18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="42" t="inlineStr"/>
+      <c r="BB18" s="43" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="BC18" s="42" t="inlineStr"/>
+      <c r="BD18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="42" t="inlineStr"/>
+      <c r="BF18" s="28" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="BG18" s="42" t="inlineStr"/>
+      <c r="BH18" s="43" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="BI18" s="42" t="inlineStr"/>
+      <c r="BJ18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="42" t="inlineStr"/>
+      <c r="BL18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="42" t="inlineStr"/>
+      <c r="BN18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="42" t="inlineStr"/>
+      <c r="BP18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="42" t="inlineStr"/>
+      <c r="BR18" s="28" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="BS18" s="42" t="inlineStr"/>
+      <c r="BT18" s="43" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="BU18" s="42" t="inlineStr"/>
+      <c r="BV18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="42" t="inlineStr"/>
+      <c r="BX18" s="28" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="BY18" s="42" t="inlineStr"/>
+      <c r="BZ18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="42" t="inlineStr"/>
+      <c r="CB18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="42" t="inlineStr"/>
+      <c r="CD18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="42" t="inlineStr"/>
+      <c r="CF18" s="43" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="CG18" s="42" t="inlineStr"/>
+      <c r="CH18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="42" t="inlineStr"/>
+      <c r="CJ18" s="28" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="CK18" s="42" t="inlineStr"/>
+      <c r="CL18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="42" t="inlineStr"/>
+      <c r="CN18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="42" t="inlineStr"/>
+      <c r="CP18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="42" t="inlineStr"/>
+      <c r="CR18" s="43" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="CS18" s="42" t="inlineStr"/>
+      <c r="CT18" s="28" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="CU18" s="42" t="inlineStr"/>
+      <c r="CV18" s="28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CW18" s="42" t="inlineStr"/>
+      <c r="CX18" s="43" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="CY18" s="42" t="inlineStr"/>
+      <c r="CZ18" s="28" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="DA18" s="42" t="inlineStr"/>
+      <c r="DB18" s="28" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="DC18" s="42" t="inlineStr"/>
+      <c r="DD18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="42" t="inlineStr"/>
+      <c r="DF18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="42" t="inlineStr"/>
+      <c r="DH18" s="28" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="DI18" s="42" t="inlineStr"/>
+      <c r="DJ18" s="43" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DK18" s="42" t="inlineStr"/>
+      <c r="DL18" s="28" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DM18" s="42" t="inlineStr"/>
+      <c r="DN18" s="28" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="DO18" s="42" t="inlineStr"/>
+      <c r="DP18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="42" t="inlineStr"/>
+      <c r="DR18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS18" s="42" t="inlineStr"/>
+      <c r="DT18" s="28" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="DU18" s="42" t="inlineStr"/>
+      <c r="DV18" s="43" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DW18" s="42" t="inlineStr"/>
+      <c r="DX18" s="28" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="DY18" s="42" t="inlineStr"/>
+      <c r="DZ18" s="28" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="EA18" s="42" t="inlineStr"/>
+      <c r="EB18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC18" s="42" t="inlineStr"/>
+      <c r="ED18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" s="42" t="inlineStr"/>
+      <c r="EF18" s="28" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="EG18" s="42" t="inlineStr"/>
+      <c r="EH18" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="42" t="inlineStr"/>
+      <c r="EJ18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK18" s="42" t="inlineStr"/>
+      <c r="EL18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM18" s="42" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="E19" s="44" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="F19" s="45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G19" s="46" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="H19" s="47" t="n">
+        <v>4.146666666666667</v>
+      </c>
+      <c r="I19" s="46" t="inlineStr"/>
+      <c r="J19" s="47" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K19" s="46" t="inlineStr"/>
+      <c r="L19" s="45" t="n">
+        <v>4.276315789473684</v>
+      </c>
+      <c r="M19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4.131578947368421</v>
+      </c>
+      <c r="O19" s="46" t="inlineStr"/>
+      <c r="P19" s="47" t="n">
+        <v>3.986842105263158</v>
+      </c>
+      <c r="Q19" s="46" t="inlineStr"/>
+      <c r="R19" s="45" t="n">
+        <v>4.324324324324325</v>
+      </c>
+      <c r="S19" s="46" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="T19" s="47" t="n">
+        <v>4.162162162162162</v>
+      </c>
+      <c r="U19" s="46" t="inlineStr"/>
+      <c r="V19" s="47" t="n">
+        <v>4.094594594594595</v>
+      </c>
+      <c r="W19" s="46" t="inlineStr"/>
+      <c r="X19" s="45" t="n">
+        <v>4.263157894736842</v>
+      </c>
+      <c r="Y19" s="46" t="inlineStr"/>
+      <c r="Z19" s="47" t="n">
+        <v>4.184210526315789</v>
+      </c>
+      <c r="AA19" s="46" t="inlineStr"/>
+      <c r="AB19" s="47" t="n">
+        <v>4.092105263157895</v>
+      </c>
+      <c r="AC19" s="46" t="inlineStr"/>
+      <c r="AD19" s="45" t="n">
+        <v>4.337837837837838</v>
+      </c>
+      <c r="AE19" s="46" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="AF19" s="47" t="n">
+        <v>4.108108108108108</v>
+      </c>
+      <c r="AG19" s="46" t="inlineStr"/>
+      <c r="AH19" s="47" t="n">
+        <v>3.986486486486486</v>
+      </c>
+      <c r="AI19" s="46" t="inlineStr"/>
+      <c r="AJ19" s="45" t="n">
+        <v>4.259740259740259</v>
+      </c>
+      <c r="AK19" s="46" t="inlineStr"/>
+      <c r="AL19" s="47" t="n">
+        <v>4.116883116883117</v>
+      </c>
+      <c r="AM19" s="46" t="inlineStr"/>
+      <c r="AN19" s="47" t="n">
+        <v>4.12987012987013</v>
+      </c>
+      <c r="AO19" s="46" t="inlineStr"/>
+      <c r="AP19" s="45" t="n">
+        <v>4.388888888888889</v>
+      </c>
+      <c r="AQ19" s="46" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="AR19" s="47" t="n">
+        <v>4.12962962962963</v>
+      </c>
+      <c r="AS19" s="46" t="inlineStr"/>
+      <c r="AT19" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="46" t="inlineStr"/>
+      <c r="AV19" s="45" t="n">
+        <v>4.210526315789473</v>
+      </c>
+      <c r="AW19" s="46" t="inlineStr"/>
+      <c r="AX19" s="47" t="n">
+        <v>4.315789473684211</v>
+      </c>
+      <c r="AY19" s="46" t="inlineStr"/>
+      <c r="AZ19" s="47" t="n">
+        <v>3.789473684210526</v>
+      </c>
+      <c r="BA19" s="46" t="inlineStr"/>
+      <c r="BB19" s="45" t="n">
+        <v>4.346666666666667</v>
+      </c>
+      <c r="BC19" s="46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BD19" s="47" t="n">
+        <v>4.146666666666667</v>
+      </c>
+      <c r="BE19" s="46" t="inlineStr"/>
+      <c r="BF19" s="47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG19" s="46" t="inlineStr"/>
+      <c r="BH19" s="45" t="n">
+        <v>4.342105263157895</v>
+      </c>
+      <c r="BI19" s="46" t="inlineStr"/>
+      <c r="BJ19" s="47" t="n">
+        <v>4.131578947368421</v>
+      </c>
+      <c r="BK19" s="46" t="inlineStr"/>
+      <c r="BL19" s="47" t="n">
+        <v>4.157894736842105</v>
+      </c>
+      <c r="BM19" s="46" t="inlineStr"/>
+      <c r="BN19" s="45" t="n">
+        <v>4.351351351351352</v>
+      </c>
+      <c r="BO19" s="46" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="BP19" s="47" t="n">
+        <v>4.162162162162162</v>
+      </c>
+      <c r="BQ19" s="46" t="inlineStr"/>
+      <c r="BR19" s="47" t="n">
+        <v>4.243243243243243</v>
+      </c>
+      <c r="BS19" s="46" t="inlineStr"/>
+      <c r="BT19" s="45" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="BU19" s="46" t="inlineStr"/>
+      <c r="BV19" s="47" t="n">
+        <v>4.222222222222222</v>
+      </c>
+      <c r="BW19" s="46" t="inlineStr"/>
+      <c r="BX19" s="47" t="n">
+        <v>4.222222222222222</v>
+      </c>
+      <c r="BY19" s="46" t="inlineStr"/>
+      <c r="BZ19" s="45" t="n">
+        <v>4.366666666666666</v>
+      </c>
+      <c r="CA19" s="46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CB19" s="47" t="n">
+        <v>4.033333333333333</v>
+      </c>
+      <c r="CC19" s="46" t="inlineStr"/>
+      <c r="CD19" s="47" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="CE19" s="46" t="inlineStr"/>
+      <c r="CF19" s="45" t="n">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="CG19" s="46" t="inlineStr"/>
+      <c r="CH19" s="47" t="n">
+        <v>4.178571428571429</v>
+      </c>
+      <c r="CI19" s="46" t="inlineStr"/>
+      <c r="CJ19" s="47" t="n">
+        <v>4.178571428571429</v>
+      </c>
+      <c r="CK19" s="46" t="inlineStr"/>
+      <c r="CL19" s="45" t="n">
+        <v>4.526315789473684</v>
+      </c>
+      <c r="CM19" s="46" t="inlineStr"/>
+      <c r="CN19" s="47" t="n">
+        <v>4.052631578947368</v>
+      </c>
+      <c r="CO19" s="46" t="inlineStr"/>
+      <c r="CP19" s="47" t="n">
+        <v>4.263157894736842</v>
+      </c>
+      <c r="CQ19" s="46" t="inlineStr"/>
+      <c r="CR19" s="45" t="n">
+        <v>4.253333333333333</v>
+      </c>
+      <c r="CS19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CT19" s="47" t="n">
+        <v>4.146666666666667</v>
+      </c>
+      <c r="CU19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CV19" s="47" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="CW19" s="46" t="inlineStr"/>
+      <c r="CX19" s="45" t="n">
+        <v>4.210526315789473</v>
+      </c>
+      <c r="CY19" s="46" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CZ19" s="47" t="n">
+        <v>4.131578947368421</v>
+      </c>
+      <c r="DA19" s="46" t="inlineStr"/>
+      <c r="DB19" s="47" t="n">
+        <v>3.815789473684211</v>
+      </c>
+      <c r="DC19" s="46" t="inlineStr"/>
+      <c r="DD19" s="45" t="n">
+        <v>4.297297297297297</v>
+      </c>
+      <c r="DE19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DF19" s="47" t="n">
+        <v>4.162162162162162</v>
+      </c>
+      <c r="DG19" s="46" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="DH19" s="47" t="n">
+        <v>3.945945945945946</v>
+      </c>
+      <c r="DI19" s="46" t="inlineStr"/>
+      <c r="DJ19" s="45" t="n">
+        <v>4.161290322580645</v>
+      </c>
+      <c r="DK19" s="46" t="inlineStr"/>
+      <c r="DL19" s="47" t="n">
+        <v>4.129032258064516</v>
+      </c>
+      <c r="DM19" s="46" t="inlineStr"/>
+      <c r="DN19" s="47" t="n">
+        <v>3.903225806451613</v>
+      </c>
+      <c r="DO19" s="46" t="inlineStr"/>
+      <c r="DP19" s="45" t="n">
+        <v>4.318181818181818</v>
+      </c>
+      <c r="DQ19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DR19" s="47" t="n">
+        <v>4.159090909090909</v>
+      </c>
+      <c r="DS19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="DT19" s="47" t="n">
+        <v>3.863636363636364</v>
+      </c>
+      <c r="DU19" s="46" t="inlineStr"/>
+      <c r="DV19" s="45" t="n">
+        <v>4.190476190476191</v>
+      </c>
+      <c r="DW19" s="46" t="inlineStr"/>
+      <c r="DX19" s="47" t="n">
+        <v>3.952380952380953</v>
+      </c>
+      <c r="DY19" s="46" t="inlineStr"/>
+      <c r="DZ19" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA19" s="46" t="inlineStr"/>
+      <c r="EB19" s="45" t="n">
+        <v>4.314285714285714</v>
+      </c>
+      <c r="EC19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED19" s="47" t="n">
+        <v>4.171428571428572</v>
+      </c>
+      <c r="EE19" s="46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EF19" s="47" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="EG19" s="46" t="inlineStr"/>
+      <c r="EH19" s="45" t="n">
+        <v>4.210526315789473</v>
+      </c>
+      <c r="EI19" s="46" t="inlineStr"/>
+      <c r="EJ19" s="47" t="n">
+        <v>4.315789473684211</v>
+      </c>
+      <c r="EK19" s="46" t="inlineStr"/>
+      <c r="EL19" s="47" t="n">
+        <v>3.789473684210526</v>
+      </c>
+      <c r="EM19" s="46" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E20" s="44" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F20" s="45" t="n">
+        <v>0.6528204168408762</v>
+      </c>
+      <c r="G20" s="46" t="inlineStr"/>
+      <c r="H20" s="47" t="n">
+        <v>0.5357885321938358</v>
+      </c>
+      <c r="I20" s="46" t="inlineStr"/>
+      <c r="J20" s="47" t="n">
+        <v>0.7035862115242025</v>
+      </c>
+      <c r="K20" s="46" t="inlineStr"/>
+      <c r="L20" s="45" t="n">
+        <v>0.7229326240718207</v>
+      </c>
+      <c r="M20" s="46" t="inlineStr"/>
+      <c r="N20" s="47" t="n">
+        <v>0.5964809080634605</v>
+      </c>
+      <c r="O20" s="46" t="inlineStr"/>
+      <c r="P20" s="47" t="n">
+        <v>0.7570719217728539</v>
+      </c>
+      <c r="Q20" s="46" t="inlineStr"/>
+      <c r="R20" s="45" t="n">
+        <v>0.5759591906231168</v>
+      </c>
+      <c r="S20" s="46" t="inlineStr"/>
+      <c r="T20" s="47" t="n">
+        <v>0.4689547405514438</v>
+      </c>
+      <c r="U20" s="46" t="inlineStr"/>
+      <c r="V20" s="47" t="n">
+        <v>0.6446602358579353</v>
+      </c>
+      <c r="W20" s="46" t="inlineStr"/>
+      <c r="X20" s="45" t="n">
+        <v>0.7369924658616545</v>
+      </c>
+      <c r="Y20" s="46" t="inlineStr"/>
+      <c r="Z20" s="47" t="n">
+        <v>0.6046602641878489</v>
+      </c>
+      <c r="AA20" s="46" t="inlineStr"/>
+      <c r="AB20" s="47" t="n">
+        <v>0.7690276384967772</v>
+      </c>
+      <c r="AC20" s="46" t="inlineStr"/>
+      <c r="AD20" s="45" t="n">
+        <v>0.5558413843679534</v>
+      </c>
+      <c r="AE20" s="46" t="inlineStr"/>
+      <c r="AF20" s="47" t="n">
+        <v>0.4553357204190359</v>
+      </c>
+      <c r="AG20" s="46" t="inlineStr"/>
+      <c r="AH20" s="47" t="n">
+        <v>0.6301389984353689</v>
+      </c>
+      <c r="AI20" s="46" t="inlineStr"/>
+      <c r="AJ20" s="45" t="n">
+        <v>0.6767297019800719</v>
+      </c>
+      <c r="AK20" s="46" t="inlineStr"/>
+      <c r="AL20" s="47" t="n">
+        <v>0.6064136588437486</v>
+      </c>
+      <c r="AM20" s="46" t="inlineStr"/>
+      <c r="AN20" s="47" t="n">
+        <v>0.7318083109424602</v>
+      </c>
+      <c r="AO20" s="46" t="inlineStr"/>
+      <c r="AP20" s="45" t="n">
+        <v>0.5635690400413083</v>
+      </c>
+      <c r="AQ20" s="46" t="inlineStr"/>
+      <c r="AR20" s="47" t="n">
+        <v>0.4363785917433801</v>
+      </c>
+      <c r="AS20" s="46" t="inlineStr"/>
+      <c r="AT20" s="47" t="n">
+        <v>0.644278153923165</v>
+      </c>
+      <c r="AU20" s="46" t="inlineStr"/>
+      <c r="AV20" s="45" t="n">
+        <v>0.7873265148181359</v>
+      </c>
+      <c r="AW20" s="46" t="inlineStr"/>
+      <c r="AX20" s="47" t="n">
+        <v>0.4775669329409192</v>
+      </c>
+      <c r="AY20" s="46" t="inlineStr"/>
+      <c r="AZ20" s="47" t="n">
+        <v>0.7132825035177586</v>
+      </c>
+      <c r="BA20" s="46" t="inlineStr"/>
+      <c r="BB20" s="45" t="n">
+        <v>0.6258687655664817</v>
+      </c>
+      <c r="BC20" s="46" t="inlineStr"/>
+      <c r="BD20" s="47" t="n">
+        <v>0.5118417548246547</v>
+      </c>
+      <c r="BE20" s="46" t="inlineStr"/>
+      <c r="BF20" s="47" t="n">
+        <v>0.6575959492214292</v>
+      </c>
+      <c r="BG20" s="46" t="inlineStr"/>
+      <c r="BH20" s="45" t="n">
+        <v>0.6688560540599386</v>
+      </c>
+      <c r="BI20" s="46" t="inlineStr"/>
+      <c r="BJ20" s="47" t="n">
+        <v>0.4748287105995938</v>
+      </c>
+      <c r="BK20" s="46" t="inlineStr"/>
+      <c r="BL20" s="47" t="n">
+        <v>0.593947663063032</v>
+      </c>
+      <c r="BM20" s="46" t="inlineStr"/>
+      <c r="BN20" s="45" t="n">
+        <v>0.5876609101729886</v>
+      </c>
+      <c r="BO20" s="46" t="inlineStr"/>
+      <c r="BP20" s="47" t="n">
+        <v>0.5534494613840601</v>
+      </c>
+      <c r="BQ20" s="46" t="inlineStr"/>
+      <c r="BR20" s="47" t="n">
+        <v>0.7228571937267572</v>
+      </c>
+      <c r="BS20" s="46" t="inlineStr"/>
+      <c r="BT20" s="45" t="n">
+        <v>0.6741998624632421</v>
+      </c>
+      <c r="BU20" s="46" t="inlineStr"/>
+      <c r="BV20" s="47" t="n">
+        <v>0.5173748811807234</v>
+      </c>
+      <c r="BW20" s="46" t="inlineStr"/>
+      <c r="BX20" s="47" t="n">
+        <v>0.7035264706814485</v>
+      </c>
+      <c r="BY20" s="46" t="inlineStr"/>
+      <c r="BZ20" s="45" t="n">
+        <v>0.5560534167675355</v>
+      </c>
+      <c r="CA20" s="46" t="inlineStr"/>
+      <c r="CB20" s="47" t="n">
+        <v>0.490132517853561</v>
+      </c>
+      <c r="CC20" s="46" t="inlineStr"/>
+      <c r="CD20" s="47" t="n">
+        <v>0.5920934999167601</v>
+      </c>
+      <c r="CE20" s="46" t="inlineStr"/>
+      <c r="CF20" s="45" t="n">
+        <v>0.6526668568067678</v>
+      </c>
+      <c r="CG20" s="46" t="inlineStr"/>
+      <c r="CH20" s="47" t="n">
+        <v>0.5083714768174533</v>
+      </c>
+      <c r="CI20" s="46" t="inlineStr"/>
+      <c r="CJ20" s="47" t="n">
+        <v>0.6635207157728689</v>
+      </c>
+      <c r="CK20" s="46" t="inlineStr"/>
+      <c r="CL20" s="45" t="n">
+        <v>0.5129891760425771</v>
+      </c>
+      <c r="CM20" s="46" t="inlineStr"/>
+      <c r="CN20" s="47" t="n">
+        <v>0.5242650104380328</v>
+      </c>
+      <c r="CO20" s="46" t="inlineStr"/>
+      <c r="CP20" s="47" t="n">
+        <v>0.6533762964749499</v>
+      </c>
+      <c r="CQ20" s="46" t="inlineStr"/>
+      <c r="CR20" s="45" t="n">
+        <v>0.6796925643127061</v>
+      </c>
+      <c r="CS20" s="46" t="inlineStr"/>
+      <c r="CT20" s="47" t="n">
+        <v>0.5621708246040842</v>
+      </c>
+      <c r="CU20" s="46" t="inlineStr"/>
+      <c r="CV20" s="47" t="n">
+        <v>0.7158438603721015</v>
+      </c>
+      <c r="CW20" s="46" t="inlineStr"/>
+      <c r="CX20" s="45" t="n">
+        <v>0.7766140902885477</v>
+      </c>
+      <c r="CY20" s="46" t="inlineStr"/>
+      <c r="CZ20" s="47" t="n">
+        <v>0.7040827896490177</v>
+      </c>
+      <c r="DA20" s="46" t="inlineStr"/>
+      <c r="DB20" s="47" t="n">
+        <v>0.8654092347958773</v>
+      </c>
+      <c r="DC20" s="46" t="inlineStr"/>
+      <c r="DD20" s="45" t="n">
+        <v>0.5708115501860712</v>
+      </c>
+      <c r="DE20" s="46" t="inlineStr"/>
+      <c r="DF20" s="47" t="n">
+        <v>0.3736838766118223</v>
+      </c>
+      <c r="DG20" s="46" t="inlineStr"/>
+      <c r="DH20" s="47" t="n">
+        <v>0.5241896362718123</v>
+      </c>
+      <c r="DI20" s="46" t="inlineStr"/>
+      <c r="DJ20" s="45" t="n">
+        <v>0.8204378584450455</v>
+      </c>
+      <c r="DK20" s="46" t="inlineStr"/>
+      <c r="DL20" s="47" t="n">
+        <v>0.7184212081070996</v>
+      </c>
+      <c r="DM20" s="46" t="inlineStr"/>
+      <c r="DN20" s="47" t="n">
+        <v>0.8308565343337929</v>
+      </c>
+      <c r="DO20" s="46" t="inlineStr"/>
+      <c r="DP20" s="45" t="n">
+        <v>0.5612580251760543</v>
+      </c>
+      <c r="DQ20" s="46" t="inlineStr"/>
+      <c r="DR20" s="47" t="n">
+        <v>0.4282567051393694</v>
+      </c>
+      <c r="DS20" s="46" t="inlineStr"/>
+      <c r="DT20" s="47" t="n">
+        <v>0.6321211648244563</v>
+      </c>
+      <c r="DU20" s="46" t="inlineStr"/>
+      <c r="DV20" s="45" t="n">
+        <v>0.7496030695673291</v>
+      </c>
+      <c r="DW20" s="46" t="inlineStr"/>
+      <c r="DX20" s="47" t="n">
+        <v>0.8047478161629563</v>
+      </c>
+      <c r="DY20" s="46" t="inlineStr"/>
+      <c r="DZ20" s="47" t="n">
+        <v>0.8944271909999159</v>
+      </c>
+      <c r="EA20" s="46" t="inlineStr"/>
+      <c r="EB20" s="45" t="n">
+        <v>0.5826626797035552</v>
+      </c>
+      <c r="EC20" s="46" t="inlineStr"/>
+      <c r="ED20" s="47" t="n">
+        <v>0.3823852604310972</v>
+      </c>
+      <c r="EE20" s="46" t="inlineStr"/>
+      <c r="EF20" s="47" t="n">
+        <v>0.6011194039582536</v>
+      </c>
+      <c r="EG20" s="46" t="inlineStr"/>
+      <c r="EH20" s="45" t="n">
+        <v>0.7873265148181359</v>
+      </c>
+      <c r="EI20" s="46" t="inlineStr"/>
+      <c r="EJ20" s="47" t="n">
+        <v>0.4775669329409192</v>
+      </c>
+      <c r="EK20" s="46" t="inlineStr"/>
+      <c r="EL20" s="47" t="n">
+        <v>0.7132825035177586</v>
+      </c>
+      <c r="EM20" s="46" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>calculate|NPS</t>
+        </is>
+      </c>
+      <c r="E21" s="48" t="inlineStr">
+        <is>
+          <t>NPS</t>
+        </is>
+      </c>
+      <c r="F21" s="45" t="n">
+        <v>0.9066666666666667</v>
+      </c>
+      <c r="G21" s="46" t="inlineStr"/>
+      <c r="H21" s="47" t="n">
+        <v>0.9266666666666666</v>
+      </c>
+      <c r="I21" s="46" t="inlineStr"/>
+      <c r="J21" s="47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="46" t="inlineStr"/>
+      <c r="L21" s="45" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="M21" s="46" t="inlineStr"/>
+      <c r="N21" s="47" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="O21" s="46" t="inlineStr"/>
+      <c r="P21" s="47" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="Q21" s="46" t="inlineStr"/>
+      <c r="R21" s="45" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="S21" s="46" t="inlineStr"/>
+      <c r="T21" s="47" t="n">
+        <v>0.9594594594594594</v>
+      </c>
+      <c r="U21" s="46" t="inlineStr"/>
+      <c r="V21" s="47" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="W21" s="46" t="inlineStr"/>
+      <c r="X21" s="45" t="n">
+        <v>0.8552631578947368</v>
+      </c>
+      <c r="Y21" s="46" t="inlineStr"/>
+      <c r="Z21" s="47" t="n">
+        <v>0.9078947368421052</v>
+      </c>
+      <c r="AA21" s="46" t="inlineStr"/>
+      <c r="AB21" s="47" t="n">
+        <v>0.7763157894736843</v>
+      </c>
+      <c r="AC21" s="46" t="inlineStr"/>
+      <c r="AD21" s="45" t="n">
+        <v>0.9594594594594594</v>
+      </c>
+      <c r="AE21" s="46" t="inlineStr"/>
+      <c r="AF21" s="47" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="AG21" s="46" t="inlineStr"/>
+      <c r="AH21" s="47" t="n">
+        <v>0.8243243243243243</v>
+      </c>
+      <c r="AI21" s="46" t="inlineStr"/>
+      <c r="AJ21" s="45" t="n">
+        <v>0.8961038961038961</v>
+      </c>
+      <c r="AK21" s="46" t="inlineStr"/>
+      <c r="AL21" s="47" t="n">
+        <v>0.8831168831168831</v>
+      </c>
+      <c r="AM21" s="46" t="inlineStr"/>
+      <c r="AN21" s="47" t="n">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="AO21" s="46" t="inlineStr"/>
+      <c r="AP21" s="45" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="AQ21" s="46" t="inlineStr"/>
+      <c r="AR21" s="47" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="AS21" s="46" t="inlineStr"/>
+      <c r="AT21" s="47" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AU21" s="46" t="inlineStr"/>
+      <c r="AV21" s="45" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="AW21" s="46" t="inlineStr"/>
+      <c r="AX21" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="46" t="inlineStr"/>
+      <c r="AZ21" s="47" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="BA21" s="46" t="inlineStr"/>
+      <c r="BB21" s="45" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="BC21" s="46" t="inlineStr"/>
+      <c r="BD21" s="47" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="BE21" s="46" t="inlineStr"/>
+      <c r="BF21" s="47" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="BG21" s="46" t="inlineStr"/>
+      <c r="BH21" s="45" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="BI21" s="46" t="inlineStr"/>
+      <c r="BJ21" s="47" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="BK21" s="46" t="inlineStr"/>
+      <c r="BL21" s="47" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="BM21" s="46" t="inlineStr"/>
+      <c r="BN21" s="45" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="BO21" s="46" t="inlineStr"/>
+      <c r="BP21" s="47" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="BQ21" s="46" t="inlineStr"/>
+      <c r="BR21" s="47" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="BS21" s="46" t="inlineStr"/>
+      <c r="BT21" s="45" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="BU21" s="46" t="inlineStr"/>
+      <c r="BV21" s="47" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="BW21" s="46" t="inlineStr"/>
+      <c r="BX21" s="47" t="n">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="BY21" s="46" t="inlineStr"/>
+      <c r="BZ21" s="45" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="CA21" s="46" t="inlineStr"/>
+      <c r="CB21" s="47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CC21" s="46" t="inlineStr"/>
+      <c r="CD21" s="47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CE21" s="46" t="inlineStr"/>
+      <c r="CF21" s="45" t="n">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="CG21" s="46" t="inlineStr"/>
+      <c r="CH21" s="47" t="n">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="CI21" s="46" t="inlineStr"/>
+      <c r="CJ21" s="47" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="CK21" s="46" t="inlineStr"/>
+      <c r="CL21" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM21" s="46" t="inlineStr"/>
+      <c r="CN21" s="47" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="CO21" s="46" t="inlineStr"/>
+      <c r="CP21" s="47" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="CQ21" s="46" t="inlineStr"/>
+      <c r="CR21" s="45" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CS21" s="46" t="inlineStr"/>
+      <c r="CT21" s="47" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CU21" s="46" t="inlineStr"/>
+      <c r="CV21" s="47" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CW21" s="46" t="inlineStr"/>
+      <c r="CX21" s="45" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="CY21" s="46" t="inlineStr"/>
+      <c r="CZ21" s="47" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="DA21" s="46" t="inlineStr"/>
+      <c r="DB21" s="47" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="DC21" s="46" t="inlineStr"/>
+      <c r="DD21" s="45" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="DE21" s="46" t="inlineStr"/>
+      <c r="DF21" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG21" s="46" t="inlineStr"/>
+      <c r="DH21" s="47" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="DI21" s="46" t="inlineStr"/>
+      <c r="DJ21" s="45" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="DK21" s="46" t="inlineStr"/>
+      <c r="DL21" s="47" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="DM21" s="46" t="inlineStr"/>
+      <c r="DN21" s="47" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="DO21" s="46" t="inlineStr"/>
+      <c r="DP21" s="45" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="DQ21" s="46" t="inlineStr"/>
+      <c r="DR21" s="47" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="DS21" s="46" t="inlineStr"/>
+      <c r="DT21" s="47" t="n">
+        <v>0.7727272727272728</v>
+      </c>
+      <c r="DU21" s="46" t="inlineStr"/>
+      <c r="DV21" s="45" t="n">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="DW21" s="46" t="inlineStr"/>
+      <c r="DX21" s="47" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="DY21" s="46" t="inlineStr"/>
+      <c r="DZ21" s="47" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="EA21" s="46" t="inlineStr"/>
+      <c r="EB21" s="45" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="EC21" s="46" t="inlineStr"/>
+      <c r="ED21" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE21" s="46" t="inlineStr"/>
+      <c r="EF21" s="47" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="EG21" s="46" t="inlineStr"/>
+      <c r="EH21" s="45" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="EI21" s="46" t="inlineStr"/>
+      <c r="EJ21" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK21" s="46" t="inlineStr"/>
+      <c r="EL21" s="47" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="EM21" s="46" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>calculate|4 - Thích weight 0.2</t>
+        </is>
+      </c>
+      <c r="E22" s="48" t="inlineStr">
+        <is>
+          <t>4 - Thích weight 0.2</t>
+        </is>
+      </c>
+      <c r="F22" s="45" t="n">
+        <v>0.1053333333333333</v>
+      </c>
+      <c r="G22" s="46" t="inlineStr"/>
+      <c r="H22" s="47" t="n">
+        <v>0.1426666666666667</v>
+      </c>
+      <c r="I22" s="46" t="inlineStr"/>
+      <c r="J22" s="47" t="n">
+        <v>0.1173333333333333</v>
+      </c>
+      <c r="K22" s="46" t="inlineStr"/>
+      <c r="L22" s="45" t="n">
+        <v>0.09736842105263159</v>
+      </c>
+      <c r="M22" s="46" t="inlineStr"/>
+      <c r="N22" s="47" t="n">
+        <v>0.1342105263157895</v>
+      </c>
+      <c r="O22" s="46" t="inlineStr"/>
+      <c r="P22" s="47" t="n">
+        <v>0.1026315789473684</v>
+      </c>
+      <c r="Q22" s="46" t="inlineStr"/>
+      <c r="R22" s="45" t="n">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="S22" s="46" t="inlineStr"/>
+      <c r="T22" s="47" t="n">
+        <v>0.1513513513513514</v>
+      </c>
+      <c r="U22" s="46" t="inlineStr"/>
+      <c r="V22" s="47" t="n">
+        <v>0.1324324324324324</v>
+      </c>
+      <c r="W22" s="46" t="inlineStr"/>
+      <c r="X22" s="45" t="n">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="Y22" s="46" t="inlineStr"/>
+      <c r="Z22" s="47" t="n">
+        <v>0.1289473684210526</v>
+      </c>
+      <c r="AA22" s="46" t="inlineStr"/>
+      <c r="AB22" s="47" t="n">
+        <v>0.09736842105263159</v>
+      </c>
+      <c r="AC22" s="46" t="inlineStr"/>
+      <c r="AD22" s="45" t="n">
+        <v>0.1162162162162162</v>
+      </c>
+      <c r="AE22" s="46" t="inlineStr"/>
+      <c r="AF22" s="47" t="n">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="AG22" s="46" t="inlineStr"/>
+      <c r="AH22" s="47" t="n">
+        <v>0.1378378378378378</v>
+      </c>
+      <c r="AI22" s="46" t="inlineStr"/>
+      <c r="AJ22" s="45" t="n">
+        <v>0.1116883116883117</v>
+      </c>
+      <c r="AK22" s="46" t="inlineStr"/>
+      <c r="AL22" s="47" t="n">
+        <v>0.1324675324675325</v>
+      </c>
+      <c r="AM22" s="46" t="inlineStr"/>
+      <c r="AN22" s="47" t="n">
+        <v>0.1064935064935065</v>
+      </c>
+      <c r="AO22" s="46" t="inlineStr"/>
+      <c r="AP22" s="45" t="n">
+        <v>0.1074074074074074</v>
+      </c>
+      <c r="AQ22" s="46" t="inlineStr"/>
+      <c r="AR22" s="47" t="n">
+        <v>0.1592592592592593</v>
+      </c>
+      <c r="AS22" s="46" t="inlineStr"/>
+      <c r="AT22" s="47" t="n">
+        <v>0.1407407407407407</v>
+      </c>
+      <c r="AU22" s="46" t="inlineStr"/>
+      <c r="AV22" s="45" t="n">
+        <v>0.07368421052631578</v>
+      </c>
+      <c r="AW22" s="46" t="inlineStr"/>
+      <c r="AX22" s="47" t="n">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="AY22" s="46" t="inlineStr"/>
+      <c r="AZ22" s="47" t="n">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="BA22" s="46" t="inlineStr"/>
+      <c r="BB22" s="45" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="BC22" s="46" t="inlineStr"/>
+      <c r="BD22" s="47" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="BE22" s="46" t="inlineStr"/>
+      <c r="BF22" s="47" t="n">
+        <v>0.1146666666666667</v>
+      </c>
+      <c r="BG22" s="46" t="inlineStr"/>
+      <c r="BH22" s="45" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BI22" s="46" t="inlineStr"/>
+      <c r="BJ22" s="47" t="n">
+        <v>0.1526315789473685</v>
+      </c>
+      <c r="BK22" s="46" t="inlineStr"/>
+      <c r="BL22" s="47" t="n">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="BM22" s="46" t="inlineStr"/>
+      <c r="BN22" s="45" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BO22" s="46" t="inlineStr"/>
+      <c r="BP22" s="47" t="n">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="BQ22" s="46" t="inlineStr"/>
+      <c r="BR22" s="47" t="n">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="BS22" s="46" t="inlineStr"/>
+      <c r="BT22" s="45" t="n">
+        <v>0.1022222222222222</v>
+      </c>
+      <c r="BU22" s="46" t="inlineStr"/>
+      <c r="BV22" s="47" t="n">
+        <v>0.1377777777777778</v>
+      </c>
+      <c r="BW22" s="46" t="inlineStr"/>
+      <c r="BX22" s="47" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="BY22" s="46" t="inlineStr"/>
+      <c r="BZ22" s="45" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="CA22" s="46" t="inlineStr"/>
+      <c r="CB22" s="47" t="n">
+        <v>0.1533333333333333</v>
+      </c>
+      <c r="CC22" s="46" t="inlineStr"/>
+      <c r="CD22" s="47" t="n">
+        <v>0.1266666666666667</v>
+      </c>
+      <c r="CE22" s="46" t="inlineStr"/>
+      <c r="CF22" s="45" t="n">
+        <v>0.1107142857142857</v>
+      </c>
+      <c r="CG22" s="46" t="inlineStr"/>
+      <c r="CH22" s="47" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="CI22" s="46" t="inlineStr"/>
+      <c r="CJ22" s="47" t="n">
+        <v>0.1178571428571429</v>
+      </c>
+      <c r="CK22" s="46" t="inlineStr"/>
+      <c r="CL22" s="45" t="n">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="CM22" s="46" t="inlineStr"/>
+      <c r="CN22" s="47" t="n">
+        <v>0.1473684210526316</v>
+      </c>
+      <c r="CO22" s="46" t="inlineStr"/>
+      <c r="CP22" s="47" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CQ22" s="46" t="inlineStr"/>
+      <c r="CR22" s="45" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CS22" s="46" t="inlineStr"/>
+      <c r="CT22" s="47" t="n">
+        <v>0.1413333333333333</v>
+      </c>
+      <c r="CU22" s="46" t="inlineStr"/>
+      <c r="CV22" s="47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CW22" s="46" t="inlineStr"/>
+      <c r="CX22" s="45" t="n">
+        <v>0.08947368421052632</v>
+      </c>
+      <c r="CY22" s="46" t="inlineStr"/>
+      <c r="CZ22" s="47" t="n">
+        <v>0.1157894736842105</v>
+      </c>
+      <c r="DA22" s="46" t="inlineStr"/>
+      <c r="DB22" s="47" t="n">
+        <v>0.07894736842105264</v>
+      </c>
+      <c r="DC22" s="46" t="inlineStr"/>
+      <c r="DD22" s="45" t="n">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="DE22" s="46" t="inlineStr"/>
+      <c r="DF22" s="47" t="n">
+        <v>0.1675675675675676</v>
+      </c>
+      <c r="DG22" s="46" t="inlineStr"/>
+      <c r="DH22" s="47" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="DI22" s="46" t="inlineStr"/>
+      <c r="DJ22" s="45" t="n">
+        <v>0.08387096774193549</v>
+      </c>
+      <c r="DK22" s="46" t="inlineStr"/>
+      <c r="DL22" s="47" t="n">
+        <v>0.1161290322580645</v>
+      </c>
+      <c r="DM22" s="46" t="inlineStr"/>
+      <c r="DN22" s="47" t="n">
+        <v>0.08387096774193549</v>
+      </c>
+      <c r="DO22" s="46" t="inlineStr"/>
+      <c r="DP22" s="45" t="n">
+        <v>0.1181818181818182</v>
+      </c>
+      <c r="DQ22" s="46" t="inlineStr"/>
+      <c r="DR22" s="47" t="n">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="DS22" s="46" t="inlineStr"/>
+      <c r="DT22" s="47" t="n">
+        <v>0.1454545454545455</v>
+      </c>
+      <c r="DU22" s="46" t="inlineStr"/>
+      <c r="DV22" s="45" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="DW22" s="46" t="inlineStr"/>
+      <c r="DX22" s="47" t="n">
+        <v>0.1047619047619048</v>
+      </c>
+      <c r="DY22" s="46" t="inlineStr"/>
+      <c r="DZ22" s="47" t="n">
+        <v>0.0761904761904762</v>
+      </c>
+      <c r="EA22" s="46" t="inlineStr"/>
+      <c r="EB22" s="45" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="EC22" s="46" t="inlineStr"/>
+      <c r="ED22" s="47" t="n">
+        <v>0.1657142857142857</v>
+      </c>
+      <c r="EE22" s="46" t="inlineStr"/>
+      <c r="EF22" s="47" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="EG22" s="46" t="inlineStr"/>
+      <c r="EH22" s="45" t="n">
+        <v>0.07368421052631578</v>
+      </c>
+      <c r="EI22" s="46" t="inlineStr"/>
+      <c r="EJ22" s="47" t="n">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="EK22" s="46" t="inlineStr"/>
+      <c r="EL22" s="47" t="n">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="EM22" s="46" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>calculate|5 - Rất thích weight 0.8</t>
+        </is>
+      </c>
+      <c r="E23" s="49" t="inlineStr">
+        <is>
+          <t>5 - Rất thích weight 0.8</t>
+        </is>
+      </c>
+      <c r="F23" s="50" t="n">
+        <v>0.3146666666666667</v>
+      </c>
+      <c r="G23" s="51" t="inlineStr"/>
+      <c r="H23" s="52" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="I23" s="51" t="inlineStr"/>
+      <c r="J23" s="52" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K23" s="51" t="inlineStr"/>
+      <c r="L23" s="50" t="n">
+        <v>0.3263157894736842</v>
+      </c>
+      <c r="M23" s="51" t="inlineStr"/>
+      <c r="N23" s="52" t="n">
+        <v>0.1894736842105263</v>
+      </c>
+      <c r="O23" s="51" t="inlineStr"/>
+      <c r="P23" s="52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="51" t="inlineStr"/>
+      <c r="R23" s="50" t="n">
+        <v>0.3027027027027027</v>
+      </c>
+      <c r="S23" s="51" t="inlineStr"/>
+      <c r="T23" s="52" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="U23" s="51" t="inlineStr"/>
+      <c r="V23" s="52" t="n">
+        <v>0.1837837837837838</v>
+      </c>
+      <c r="W23" s="51" t="inlineStr"/>
+      <c r="X23" s="50" t="n">
+        <v>0.3263157894736842</v>
+      </c>
+      <c r="Y23" s="51" t="inlineStr"/>
+      <c r="Z23" s="52" t="n">
+        <v>0.2210526315789474</v>
+      </c>
+      <c r="AA23" s="51" t="inlineStr"/>
+      <c r="AB23" s="52" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+      <c r="AC23" s="51" t="inlineStr"/>
+      <c r="AD23" s="50" t="n">
+        <v>0.3027027027027027</v>
+      </c>
+      <c r="AE23" s="51" t="inlineStr"/>
+      <c r="AF23" s="52" t="n">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="AG23" s="51" t="inlineStr"/>
+      <c r="AH23" s="52" t="n">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="AI23" s="51" t="inlineStr"/>
+      <c r="AJ23" s="50" t="n">
+        <v>0.290909090909091</v>
+      </c>
+      <c r="AK23" s="51" t="inlineStr"/>
+      <c r="AL23" s="52" t="n">
+        <v>0.187012987012987</v>
+      </c>
+      <c r="AM23" s="51" t="inlineStr"/>
+      <c r="AN23" s="52" t="n">
+        <v>0.2493506493506494</v>
+      </c>
+      <c r="AO23" s="51" t="inlineStr"/>
+      <c r="AP23" s="50" t="n">
+        <v>0.3407407407407408</v>
+      </c>
+      <c r="AQ23" s="51" t="inlineStr"/>
+      <c r="AR23" s="52" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AS23" s="51" t="inlineStr"/>
+      <c r="AT23" s="52" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AU23" s="51" t="inlineStr"/>
+      <c r="AV23" s="50" t="n">
+        <v>0.3368421052631579</v>
+      </c>
+      <c r="AW23" s="51" t="inlineStr"/>
+      <c r="AX23" s="52" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+      <c r="AY23" s="51" t="inlineStr"/>
+      <c r="AZ23" s="52" t="n">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="BA23" s="51" t="inlineStr"/>
+      <c r="BB23" s="50" t="n">
+        <v>0.3306666666666667</v>
+      </c>
+      <c r="BC23" s="51" t="inlineStr"/>
+      <c r="BD23" s="52" t="n">
+        <v>0.1706666666666667</v>
+      </c>
+      <c r="BE23" s="51" t="inlineStr"/>
+      <c r="BF23" s="52" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="BG23" s="51" t="inlineStr"/>
+      <c r="BH23" s="50" t="n">
+        <v>0.3368421052631579</v>
+      </c>
+      <c r="BI23" s="51" t="inlineStr"/>
+      <c r="BJ23" s="52" t="n">
+        <v>0.1473684210526316</v>
+      </c>
+      <c r="BK23" s="51" t="inlineStr"/>
+      <c r="BL23" s="52" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BM23" s="51" t="inlineStr"/>
+      <c r="BN23" s="50" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="BO23" s="51" t="inlineStr"/>
+      <c r="BP23" s="52" t="n">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="BQ23" s="51" t="inlineStr"/>
+      <c r="BR23" s="52" t="n">
+        <v>0.3027027027027027</v>
+      </c>
+      <c r="BS23" s="51" t="inlineStr"/>
+      <c r="BT23" s="50" t="n">
+        <v>0.3377777777777778</v>
+      </c>
+      <c r="BU23" s="51" t="inlineStr"/>
+      <c r="BV23" s="52" t="n">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="BW23" s="51" t="inlineStr"/>
+      <c r="BX23" s="52" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="BY23" s="51" t="inlineStr"/>
+      <c r="BZ23" s="50" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="CA23" s="51" t="inlineStr"/>
+      <c r="CB23" s="52" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="CC23" s="51" t="inlineStr"/>
+      <c r="CD23" s="52" t="n">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="CE23" s="51" t="inlineStr"/>
+      <c r="CF23" s="50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CG23" s="51" t="inlineStr"/>
+      <c r="CH23" s="52" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="CI23" s="51" t="inlineStr"/>
+      <c r="CJ23" s="52" t="n">
+        <v>0.2428571428571429</v>
+      </c>
+      <c r="CK23" s="51" t="inlineStr"/>
+      <c r="CL23" s="50" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="CM23" s="51" t="inlineStr"/>
+      <c r="CN23" s="52" t="n">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="CO23" s="51" t="inlineStr"/>
+      <c r="CP23" s="52" t="n">
+        <v>0.2947368421052631</v>
+      </c>
+      <c r="CQ23" s="51" t="inlineStr"/>
+      <c r="CR23" s="50" t="n">
+        <v>0.2986666666666667</v>
+      </c>
+      <c r="CS23" s="51" t="inlineStr"/>
+      <c r="CT23" s="52" t="n">
+        <v>0.1813333333333333</v>
+      </c>
+      <c r="CU23" s="51" t="inlineStr"/>
+      <c r="CV23" s="52" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="CW23" s="51" t="inlineStr"/>
+      <c r="CX23" s="50" t="n">
+        <v>0.3157894736842106</v>
+      </c>
+      <c r="CY23" s="51" t="inlineStr"/>
+      <c r="CZ23" s="52" t="n">
+        <v>0.2315789473684211</v>
+      </c>
+      <c r="DA23" s="51" t="inlineStr"/>
+      <c r="DB23" s="52" t="n">
+        <v>0.1894736842105263</v>
+      </c>
+      <c r="DC23" s="51" t="inlineStr"/>
+      <c r="DD23" s="50" t="n">
+        <v>0.2810810810810811</v>
+      </c>
+      <c r="DE23" s="51" t="inlineStr"/>
+      <c r="DF23" s="52" t="n">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="DG23" s="51" t="inlineStr"/>
+      <c r="DH23" s="52" t="n">
+        <v>0.06486486486486487</v>
+      </c>
+      <c r="DI23" s="51" t="inlineStr"/>
+      <c r="DJ23" s="50" t="n">
+        <v>0.3096774193548387</v>
+      </c>
+      <c r="DK23" s="51" t="inlineStr"/>
+      <c r="DL23" s="52" t="n">
+        <v>0.2322580645161291</v>
+      </c>
+      <c r="DM23" s="51" t="inlineStr"/>
+      <c r="DN23" s="52" t="n">
+        <v>0.2064516129032258</v>
+      </c>
+      <c r="DO23" s="51" t="inlineStr"/>
+      <c r="DP23" s="50" t="n">
+        <v>0.290909090909091</v>
+      </c>
+      <c r="DQ23" s="51" t="inlineStr"/>
+      <c r="DR23" s="52" t="n">
+        <v>0.1454545454545455</v>
+      </c>
+      <c r="DS23" s="51" t="inlineStr"/>
+      <c r="DT23" s="52" t="n">
+        <v>0.07272727272727274</v>
+      </c>
+      <c r="DU23" s="51" t="inlineStr"/>
+      <c r="DV23" s="50" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="DW23" s="51" t="inlineStr"/>
+      <c r="DX23" s="52" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="DY23" s="51" t="inlineStr"/>
+      <c r="DZ23" s="52" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="EA23" s="51" t="inlineStr"/>
+      <c r="EB23" s="50" t="n">
+        <v>0.2971428571428572</v>
+      </c>
+      <c r="EC23" s="51" t="inlineStr"/>
+      <c r="ED23" s="52" t="n">
+        <v>0.1371428571428571</v>
+      </c>
+      <c r="EE23" s="51" t="inlineStr"/>
+      <c r="EF23" s="52" t="n">
+        <v>0.04571428571428571</v>
+      </c>
+      <c r="EG23" s="51" t="inlineStr"/>
+      <c r="EH23" s="50" t="n">
+        <v>0.3368421052631579</v>
+      </c>
+      <c r="EI23" s="51" t="inlineStr"/>
+      <c r="EJ23" s="52" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+      <c r="EK23" s="51" t="inlineStr"/>
+      <c r="EL23" s="52" t="n">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="EM23" s="51" t="inlineStr"/>
+    </row>
+    <row r="24"/>
+  </sheetData>
+  <mergeCells count="199">
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CR5:DI5"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="DF8:DG8"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DP6:DU6"/>
+    <mergeCell ref="DZ8:EA8"/>
+    <mergeCell ref="BZ6:CE6"/>
+    <mergeCell ref="DR8:DS8"/>
+    <mergeCell ref="EB8:EC8"/>
+    <mergeCell ref="DT8:DU8"/>
+    <mergeCell ref="EB6:EG6"/>
+    <mergeCell ref="EL8:EM8"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CR7:CW7"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="EF8:EG8"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="X5:AI5"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="F4:BA4"/>
+    <mergeCell ref="CR4:EM4"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="DN8:DO8"/>
+    <mergeCell ref="DP8:DQ8"/>
+    <mergeCell ref="CF6:CK6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="BB5:BS5"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="AJ6:AO6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BB6:BG6"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="CL6:CQ6"/>
+    <mergeCell ref="CV8:CW8"/>
+    <mergeCell ref="DD6:DI6"/>
+    <mergeCell ref="CX8:CY8"/>
+    <mergeCell ref="CX6:DC6"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="AJ5:BA5"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="DV5:EM5"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AP7:AU7"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BT6:BY6"/>
+    <mergeCell ref="DV8:DW8"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="DX8:DY8"/>
+    <mergeCell ref="DV6:EA6"/>
+    <mergeCell ref="F3:EM3"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CX7:DC7"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DJ7:DO7"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="DJ5:DU5"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="CR6:CW6"/>
+    <mergeCell ref="DD8:DE8"/>
+    <mergeCell ref="BB4:CQ4"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="AV6:BA6"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="AD7:AI7"/>
+    <mergeCell ref="BN6:BS6"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="BH8:BI8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BJ8:BK8"/>
+    <mergeCell ref="BH6:BM6"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="DJ8:DK8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="DL8:DM8"/>
+    <mergeCell ref="DJ6:DO6"/>
+    <mergeCell ref="ED8:EE8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="BB7:BG7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="EH8:EI8"/>
+    <mergeCell ref="BN7:BS7"/>
+    <mergeCell ref="CR8:CS8"/>
+    <mergeCell ref="EJ8:EK8"/>
+    <mergeCell ref="EH6:EM6"/>
+    <mergeCell ref="CT8:CU8"/>
+    <mergeCell ref="DP7:DU7"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="BZ7:CE7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="CF5:CQ5"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="AJ7:AO7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="BT7:BY7"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CL7:CQ7"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CF7:CK7"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EH7:EM7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DD7:DI7"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="BT5:CE5"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="CP8:CQ8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="CZ8:DA8"/>
+    <mergeCell ref="DB8:DC8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="X7:AC7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>